--- a/results/Overall_score_analysis.xlsx
+++ b/results/Overall_score_analysis.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashvinn\Documents\GitHub\LLM_Interpretability_Research\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashvi\PycharmProjects\LLM_Interpretability_Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862D4C45-AF27-45A3-A434-EF8B2614A68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9BE966-7276-4881-903B-F40E857A8EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FE4610ED-2644-4B09-8F25-61DCA81DFAD7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="16">
   <si>
     <t>ROUGE 1</t>
   </si>
@@ -226,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -284,6 +285,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,6 +304,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E6529C-6372-131D-580A-D608EECB8A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="2844165"/>
+          <a:ext cx="5943600" cy="3566160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -350,7 +401,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -714,10 +765,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47B1458-BA4B-4EAE-BCE9-A2C3FC37BD74}">
+  <dimension ref="A2:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.59483278225686398</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.64655269326444698</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.50553126986247998</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
+        <v>0.5823055817945969</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.49316937027899199</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.47698746317606899</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.36475272781005202</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
+        <v>0.44496985375503767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.54188409095145496</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.57334421594170404</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.52062539037993405</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54528456575769768</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.42775880358964002</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.412329251570974</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.400545281062894</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.41354444540783603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.60624233520883897</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.52304050584267003</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.53886560467152</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55604948190767634</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.47743028387988401</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.35841287246797998</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.365873815127577</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.40057232382514701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.49314375506108998</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.61496835266815697</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.58580376308082005</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5646386236033557</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.40643888290285701</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.43625146871410603</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.414710078328339</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.41913347664843403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.42342399871047198</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.50987605468068398</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.53264088454319802</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.48864697931145135</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.33864680802483799</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.341386222787537</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.37378752186971897</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.35127351756069797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.55091786261785403</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.59039433732525703</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.58511835040018301</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57547685011443139</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.399703081000508</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.396547300699228</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.40898930253726201</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.40174656141233261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.50920813121553699</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.261389725197615</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.31504409735246602</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10:E11" si="2">SUM(B10:D10)/3</f>
+        <v>0.36188065125520597</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.41375574467480303</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.17964035837106099</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.22270358332376</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10:L11" si="3">SUM(I10:K10)/3</f>
+        <v>0.27203322878987463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.50920813121553699</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.261389725197615</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.32918853922186198</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.36659546521167136</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.41375574467480303</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.17964035837106099</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.23607751536362601</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.27649120613649664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(B4:B11), B4:B11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f t="shared" ref="C12:E12" si="4">INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>v2-html</v>
+      </c>
+      <c r="E12" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="11" t="str">
+        <f>INDEX($H4:$H11, MATCH(MAX(I4:I11), I4:I11, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="J12" s="11" t="str">
+        <f t="shared" ref="J12:L12" si="5">INDEX($H4:$H11, MATCH(MAX(J4:J11), J4:J11, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="K12" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>v2-html</v>
+      </c>
+      <c r="L12" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>v0-unstruct</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:K11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA7B5C7-8A33-4FD1-986B-A27316631CA2}">
   <dimension ref="A2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -1073,7 +1556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525F6779-DD0B-49D7-B276-92B104E5F465}">
   <dimension ref="A2:L10"/>
   <sheetViews>
@@ -1417,7 +1900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA93D1B-782E-46E2-8D44-78C4206E258C}">
   <dimension ref="A2:L10"/>
   <sheetViews>
@@ -1769,7 +2252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3891B14-8636-44EC-9D3D-F5390233C3F1}">
   <dimension ref="A2:P12"/>
   <sheetViews>

--- a/results/Overall_score_analysis.xlsx
+++ b/results/Overall_score_analysis.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashvi\PycharmProjects\LLM_Interpretability_Research\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashvinn\Documents\GitHub\LLM_Interpretability_Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9BE966-7276-4881-903B-F40E857A8EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8BD27B-A26E-455D-A90A-6055161ABE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FE4610ED-2644-4B09-8F25-61DCA81DFAD7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
   <si>
     <t>ROUGE 1</t>
   </si>
@@ -89,12 +91,48 @@
   <si>
     <t>biased docs working on  v2.1</t>
   </si>
+  <si>
+    <t>Clearly V2-toml and v2-custom3</t>
+  </si>
+  <si>
+    <t>is not good for large file</t>
+  </si>
+  <si>
+    <t>Q2 and Q3 docs is from a large file</t>
+  </si>
+  <si>
+    <t>v2.1-unstruct</t>
+  </si>
+  <si>
+    <t>v2.1-md</t>
+  </si>
+  <si>
+    <t>v2.1-toml</t>
+  </si>
+  <si>
+    <t>v2.1-json</t>
+  </si>
+  <si>
+    <t>v2.1-html</t>
+  </si>
+  <si>
+    <t>v2.1-custom1</t>
+  </si>
+  <si>
+    <t>v2.1-custom2</t>
+  </si>
+  <si>
+    <t>3 readings average</t>
+  </si>
+  <si>
+    <t>5 readings average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +194,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -279,13 +324,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,6 +350,103 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A097F33-309F-C05E-3FF4-EDF7D6CCE0FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="15065"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="2571750"/>
+          <a:ext cx="6229350" cy="4400550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F62A7A-41A7-E9F9-FBA0-0F1F46A9F812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438774" y="2400299"/>
+          <a:ext cx="7477125" cy="4486275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -352,7 +495,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -401,7 +544,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -765,11 +908,819 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47B1458-BA4B-4EAE-BCE9-A2C3FC37BD74}">
-  <dimension ref="A2:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC60521-07AC-4A58-A8B9-7F9C46143BF8}">
+  <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="I2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.51418724135073102</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.65752632163805003</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.55939154720565198</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
+        <v>0.57703503673147771</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.40091393630130001</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.51272474295984105</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.40620984172796898</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
+        <v>0.43994950699636998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.55198222628754201</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.60014959361070197</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.54181469908542201</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.56464883966122204</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.39034362504565001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.46874817789145601</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.36825546704949302</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.40911575666219968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.36788831285463502</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.47544811103961698</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.48709566531558002</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44347736306994401</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.30366929283857802</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.34937006414223498</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.30551202472927802</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.31951712723669701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.55506954624601601</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.58665307518651899</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.53484418308495696</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55885560150583069</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.43330396859808601</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.46170557350449298</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.38452996480186002</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42651316896814634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.49393845375988199</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.61039622246798397</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.53539768188982395</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54657745270589653</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.34208724030152599</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.42878683997834899</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.38893120410444798</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38660176146144098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.59527838833603497</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.58861056357336194</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.56606340562149304</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58331745251029665</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.43555739743058403</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.454614809398038</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.388651714988685</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42627464060576897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.51839037596302595</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.61663256650652098</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.51998983545657895</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10" si="2">SUM(B10:D10)/3</f>
+        <v>0.55167092597537526</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.36481862147728</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.45340539500627303</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.345648093628183</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10" si="3">SUM(I10:K10)/3</f>
+        <v>0.38795737003724534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(I4:I10), I4:I10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(J4:J10), J4:J10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="L11" s="19" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:K10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E121A363-FC9D-421C-B4C0-C742E7C05D40}">
+  <dimension ref="A2:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="I2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.52476084842883097</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.659995403586638</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.56065877676471898</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
+        <v>0.58180500959339598</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.41352638791785301</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.51394939636165105</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.40685355970444298</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
+        <v>0.44477644799464899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.55089278223903404</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.59923595686182496</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.50660382284407002</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55224418731497638</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.38647731514767802</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.46810744562600998</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.35373233839332102</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.40277236638900304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.36602507637069298</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.47544811103961698</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.48371819016623901</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44173045919218296</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.30318344456591101</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.34937006414223498</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.310327520531194</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.32096034307978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.56169634202943897</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.588802498764184</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.54953289789552895</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.56667724622971727</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.43218772651798798</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.46125387313126698</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.42159584367664099</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.43834581444196535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.494464616121846</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.60926560640836103</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.580158865712192</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5612963627474663</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.3425136778142</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.42817672662989897</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.39993468716582897</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.39020836386997598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.59527838833603497</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.59158993466698595</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.58074092535513899</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58920308278605327</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.43555739743058403</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.46039219856219499</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.38528004809737798</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42707654803005229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.51718654929439201</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.62033605154788096</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.52221834805516798</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10" si="2">SUM(B10:D10)/3</f>
+        <v>0.55324698296581365</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.36313417759496103</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.45433168219030501</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.34185549891256101</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10" si="3">SUM(I10:K10)/3</f>
+        <v>0.3864404528992757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(I4:I10), I4:I10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(J4:J10), J4:J10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
+        <v>v2.1-json</v>
+      </c>
+      <c r="L11" s="19" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:K10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47B1458-BA4B-4EAE-BCE9-A2C3FC37BD74}">
+  <dimension ref="A2:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,16 +1735,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1142,13 +2093,13 @@
         <f t="shared" si="5"/>
         <v>v2-html</v>
       </c>
-      <c r="L12" s="21" t="str">
+      <c r="L12" s="19" t="str">
         <f t="shared" si="5"/>
         <v>v0-unstruct</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="D15" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1160,6 +2111,21 @@
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +2162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA7B5C7-8A33-4FD1-986B-A27316631CA2}">
   <dimension ref="A2:L15"/>
   <sheetViews>
@@ -1216,16 +2182,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1556,7 +2522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525F6779-DD0B-49D7-B276-92B104E5F465}">
   <dimension ref="A2:L10"/>
   <sheetViews>
@@ -1576,16 +2542,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1900,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA93D1B-782E-46E2-8D44-78C4206E258C}">
   <dimension ref="A2:L10"/>
   <sheetViews>
@@ -1924,16 +2890,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2252,7 +3218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3891B14-8636-44EC-9D3D-F5390233C3F1}">
   <dimension ref="A2:P12"/>
   <sheetViews>
@@ -2279,21 +3245,21 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>

--- a/results/Overall_score_analysis.xlsx
+++ b/results/Overall_score_analysis.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashvinn\Documents\GitHub\LLM_Interpretability_Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8BD27B-A26E-455D-A90A-6055161ABE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3150A92C-FA1C-4857-AEDF-22A96FDA18AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FE4610ED-2644-4B09-8F25-61DCA81DFAD7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet7" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="28">
   <si>
     <t>ROUGE 1</t>
   </si>
@@ -353,6 +354,275 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D799CB-BB7D-9B41-78C6-030B11EDD9B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630149" y="251459"/>
+          <a:ext cx="4772025" cy="2863215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238123</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>118109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC137DD-B611-EECB-639D-1DB1C9294E1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12734925" y="3495675"/>
+          <a:ext cx="4848223" cy="2908934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1162049</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF7B1F2-E0AB-DB49-FDE2-E725F3C86AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657974" y="2905124"/>
+          <a:ext cx="5762625" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3526CA-57C7-D366-4EC6-AA3DCE5DF4D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="387350" y="3362325"/>
+          <a:ext cx="5461000" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549274</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64522AB-6572-FEA5-6A46-1858EFAB85E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361951" y="6734175"/>
+          <a:ext cx="5683248" cy="3409949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>167638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7182C0C7-7ACC-B220-946B-5ABFCB76AC96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571499" y="10454638"/>
+          <a:ext cx="5848351" cy="3509011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -397,7 +667,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -446,7 +716,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -495,7 +765,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -544,7 +814,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -908,11 +1178,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC60521-07AC-4A58-A8B9-7F9C46143BF8}">
-  <dimension ref="A2:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BFA5EB-567E-4227-9DD9-3281E0609878}">
+  <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,17 +1239,17 @@
         <v>19</v>
       </c>
       <c r="B4" s="17">
-        <v>0.51418724135073102</v>
+        <v>0.51732867597054299</v>
       </c>
       <c r="C4" s="6">
-        <v>0.65752632163805003</v>
+        <v>0.65595952914717603</v>
       </c>
       <c r="D4" s="6">
-        <v>0.55939154720565198</v>
+        <v>0.55734079035108197</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
-        <v>0.57703503673147771</v>
+        <v>0.57687633182293363</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -987,17 +1257,17 @@
         <v>19</v>
       </c>
       <c r="I4" s="6">
-        <v>0.40091393630130001</v>
+        <v>0.40951934516503502</v>
       </c>
       <c r="J4" s="6">
-        <v>0.51272474295984105</v>
+        <v>0.51205602316782906</v>
       </c>
       <c r="K4" s="6">
-        <v>0.40620984172796898</v>
+        <v>0.405017756581661</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
-        <v>0.43994950699636998</v>
+        <v>0.44219770830484167</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1005,17 +1275,17 @@
         <v>20</v>
       </c>
       <c r="B5" s="6">
-        <v>0.55198222628754201</v>
+        <v>0.55160691680575102</v>
       </c>
       <c r="C5" s="6">
-        <v>0.60014959361070197</v>
+        <v>0.59923595686182496</v>
       </c>
       <c r="D5" s="6">
-        <v>0.54181469908542201</v>
+        <v>0.49286878977899101</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>0.56464883966122204</v>
+        <v>0.54790388781552235</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1023,17 +1293,17 @@
         <v>20</v>
       </c>
       <c r="I5" s="6">
-        <v>0.39034362504565001</v>
+        <v>0.39032199463408501</v>
       </c>
       <c r="J5" s="6">
-        <v>0.46874817789145601</v>
+        <v>0.46810744562600998</v>
       </c>
       <c r="K5" s="6">
-        <v>0.36825546704949302</v>
+        <v>0.346657346677397</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="1"/>
-        <v>0.40911575666219968</v>
+        <v>0.40169559564583063</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1041,17 +1311,17 @@
         <v>21</v>
       </c>
       <c r="B6" s="6">
-        <v>0.36788831285463502</v>
+        <v>0.364513063803519</v>
       </c>
       <c r="C6" s="6">
-        <v>0.47544811103961698</v>
+        <v>0.47661611604535298</v>
       </c>
       <c r="D6" s="6">
-        <v>0.48709566531558002</v>
+        <v>0.45437259914933997</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>0.44347736306994401</v>
+        <v>0.43183392633273732</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1059,17 +1329,17 @@
         <v>21</v>
       </c>
       <c r="I6" s="6">
-        <v>0.30366929283857802</v>
+        <v>0.303051264918969</v>
       </c>
       <c r="J6" s="6">
-        <v>0.34937006414223498</v>
+        <v>0.35124258010381099</v>
       </c>
       <c r="K6" s="6">
-        <v>0.30551202472927802</v>
+        <v>0.30942915926422698</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="1"/>
-        <v>0.31951712723669701</v>
+        <v>0.3212410014290023</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1077,17 +1347,17 @@
         <v>22</v>
       </c>
       <c r="B7" s="6">
-        <v>0.55506954624601601</v>
+        <v>0.55443062693239797</v>
       </c>
       <c r="C7" s="6">
-        <v>0.58665307518651899</v>
+        <v>0.59125034891318395</v>
       </c>
       <c r="D7" s="6">
-        <v>0.53484418308495696</v>
+        <v>0.54088393775724197</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>0.55885560150583069</v>
+        <v>0.5621883045342746</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1095,17 +1365,17 @@
         <v>22</v>
       </c>
       <c r="I7" s="6">
-        <v>0.43330396859808601</v>
+        <v>0.43318226968120599</v>
       </c>
       <c r="J7" s="6">
-        <v>0.46170557350449298</v>
+        <v>0.46611409734015102</v>
       </c>
       <c r="K7" s="6">
-        <v>0.38452996480186002</v>
+        <v>0.41371385483877599</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="1"/>
-        <v>0.42651316896814634</v>
+        <v>0.43767007395337765</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1113,17 +1383,17 @@
         <v>23</v>
       </c>
       <c r="B8" s="6">
-        <v>0.49393845375988199</v>
+        <v>0.49699652884176698</v>
       </c>
       <c r="C8" s="6">
-        <v>0.61039622246798397</v>
+        <v>0.60961754205441498</v>
       </c>
       <c r="D8" s="6">
-        <v>0.53539768188982395</v>
+        <v>0.54622633648558405</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>0.54657745270589653</v>
+        <v>0.55094680246058869</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1131,17 +1401,17 @@
         <v>23</v>
       </c>
       <c r="I8" s="6">
-        <v>0.34208724030152599</v>
+        <v>0.341115647960886</v>
       </c>
       <c r="J8" s="6">
-        <v>0.42878683997834899</v>
+        <v>0.42843267982702798</v>
       </c>
       <c r="K8" s="6">
-        <v>0.38893120410444798</v>
+        <v>0.39196877405085701</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="1"/>
-        <v>0.38660176146144098</v>
+        <v>0.38717236727959037</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1152,14 +1422,14 @@
         <v>0.59527838833603497</v>
       </c>
       <c r="C9" s="6">
-        <v>0.58861056357336194</v>
+        <v>0.58784495448829299</v>
       </c>
       <c r="D9" s="6">
-        <v>0.56606340562149304</v>
+        <v>0.53212539175057705</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>0.58331745251029665</v>
+        <v>0.57174957819163497</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1170,14 +1440,14 @@
         <v>0.43555739743058403</v>
       </c>
       <c r="J9" s="6">
-        <v>0.454614809398038</v>
+        <v>0.45441570895440703</v>
       </c>
       <c r="K9" s="6">
-        <v>0.388651714988685</v>
+        <v>0.365022842061546</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="1"/>
-        <v>0.42627464060576897</v>
+        <v>0.41833198281551232</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1185,17 +1455,17 @@
         <v>25</v>
       </c>
       <c r="B10" s="6">
-        <v>0.51839037596302595</v>
+        <v>0.52104457398574999</v>
       </c>
       <c r="C10" s="6">
-        <v>0.61663256650652098</v>
+        <v>0.60441090612299198</v>
       </c>
       <c r="D10" s="6">
-        <v>0.51998983545657895</v>
+        <v>0.53742179951271796</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" ref="E10" si="2">SUM(B10:D10)/3</f>
-        <v>0.55167092597537526</v>
+        <v>0.5542924265404866</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1203,17 +1473,17 @@
         <v>25</v>
       </c>
       <c r="I10" s="6">
-        <v>0.36481862147728</v>
+        <v>0.36831495360907102</v>
       </c>
       <c r="J10" s="6">
-        <v>0.45340539500627303</v>
+        <v>0.44924888676561497</v>
       </c>
       <c r="K10" s="6">
-        <v>0.345648093628183</v>
+        <v>0.38717885259639501</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ref="L10" si="3">SUM(I10:K10)/3</f>
-        <v>0.38795737003724534</v>
+        <v>0.40158089765702698</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1228,11 +1498,11 @@
       </c>
       <c r="D11" s="11" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
-        <v>v2.1-custom1</v>
+        <v>v2.1-unstruct</v>
       </c>
       <c r="E11" s="12" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
-        <v>v2.1-custom1</v>
+        <v>v2.1-unstruct</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1247,7 +1517,7 @@
       </c>
       <c r="K11" s="11" t="str">
         <f>INDEX($H4:$H10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
-        <v>v2.1-unstruct</v>
+        <v>v2.1-json</v>
       </c>
       <c r="L11" s="19" t="str">
         <f>INDEX($H4:$H10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
@@ -1268,14 +1538,7 @@
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1312,6 +1575,410 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC60521-07AC-4A58-A8B9-7F9C46143BF8}">
+  <dimension ref="A2:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="I2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.51418724135073102</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.65752632163805003</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.55939154720565198</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
+        <v>0.57703503673147771</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.40091393630130001</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.51272474295984105</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.40620984172796898</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
+        <v>0.43994950699636998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.55198222628754201</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.60014959361070197</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.54181469908542201</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.56464883966122204</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.39034362504565001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.46874817789145601</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.36825546704949302</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.40911575666219968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.36788831285463502</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.47544811103961698</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.48709566531558002</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44347736306994401</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.30366929283857802</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.34937006414223498</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.30551202472927802</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.31951712723669701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.55506954624601601</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.58665307518651899</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.53484418308495696</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55885560150583069</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.43330396859808601</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.46170557350449298</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.38452996480186002</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42651316896814634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.49393845375988199</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.61039622246798397</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.53539768188982395</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54657745270589653</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.34208724030152599</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.42878683997834899</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.38893120410444798</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38660176146144098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.59527838833603497</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.58861056357336194</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.56606340562149304</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58331745251029665</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.43555739743058403</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.454614809398038</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.388651714988685</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42627464060576897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.51839037596302595</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.61663256650652098</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.51998983545657895</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10" si="2">SUM(B10:D10)/3</f>
+        <v>0.55167092597537526</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.36481862147728</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.45340539500627303</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.345648093628183</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10" si="3">SUM(I10:K10)/3</f>
+        <v>0.38795737003724534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(I4:I10), I4:I10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(J4:J10), J4:J10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="L11" s="19" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:K10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E121A363-FC9D-421C-B4C0-C742E7C05D40}">
   <dimension ref="A2:L20"/>
   <sheetViews>
@@ -1715,7 +2382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47B1458-BA4B-4EAE-BCE9-A2C3FC37BD74}">
   <dimension ref="A2:L21"/>
   <sheetViews>
@@ -2162,7 +2829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA7B5C7-8A33-4FD1-986B-A27316631CA2}">
   <dimension ref="A2:L15"/>
   <sheetViews>
@@ -2522,7 +3189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525F6779-DD0B-49D7-B276-92B104E5F465}">
   <dimension ref="A2:L10"/>
   <sheetViews>
@@ -2866,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA93D1B-782E-46E2-8D44-78C4206E258C}">
   <dimension ref="A2:L10"/>
   <sheetViews>
@@ -3218,7 +3885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3891B14-8636-44EC-9D3D-F5390233C3F1}">
   <dimension ref="A2:P12"/>
   <sheetViews>

--- a/results/Overall_score_analysis.xlsx
+++ b/results/Overall_score_analysis.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashvinn\Documents\GitHub\LLM_Interpretability_Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3150A92C-FA1C-4857-AEDF-22A96FDA18AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1476D899-955F-4380-B454-D6DE3F4D1C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FE4610ED-2644-4B09-8F25-61DCA81DFAD7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet8" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="29">
   <si>
     <t>ROUGE 1</t>
   </si>
@@ -127,6 +128,9 @@
   </si>
   <si>
     <t>5 readings average</t>
+  </si>
+  <si>
+    <t>v2.1-custom4</t>
   </si>
 </sst>
 </file>
@@ -351,6 +355,275 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5EFF2EA-3561-3B33-4E1A-40279177662C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11801475" y="133349"/>
+          <a:ext cx="5095875" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C849773B-44E7-CD60-EF0A-98877FED2129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="3514725"/>
+          <a:ext cx="5588000" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB61574-C3BE-5129-DE33-4226CE3E85DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="2676525"/>
+          <a:ext cx="4794250" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CC4F75-C2DF-45C1-4446-CDCE7BDE8335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="3238500"/>
+          <a:ext cx="5492750" cy="3295650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463553</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2CCAB95-1DDF-F20A-1B3F-2E30D9C2A185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466726" y="6648449"/>
+          <a:ext cx="5492752" cy="3295651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425449</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3C4804-A9F1-D170-057C-1DA0C91D3A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533401" y="10191750"/>
+          <a:ext cx="4778373" cy="2867024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -619,7 +892,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -667,7 +940,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -716,7 +989,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -765,7 +1038,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -814,7 +1087,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1178,11 +1451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BFA5EB-567E-4227-9DD9-3281E0609878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C4ACBE-6B2D-40D6-85AE-1D88EB81D505}">
   <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,17 +1512,17 @@
         <v>19</v>
       </c>
       <c r="B4" s="17">
-        <v>0.51732867597054299</v>
+        <v>0.51812004419072999</v>
       </c>
       <c r="C4" s="6">
-        <v>0.65595952914717603</v>
+        <v>0.66061902735506195</v>
       </c>
       <c r="D4" s="6">
-        <v>0.55734079035108197</v>
+        <v>0.55854672749960699</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
-        <v>0.57687633182293363</v>
+        <v>0.57909526634846631</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1257,17 +1530,17 @@
         <v>19</v>
       </c>
       <c r="I4" s="6">
-        <v>0.40951934516503502</v>
+        <v>0.40697179177497</v>
       </c>
       <c r="J4" s="6">
-        <v>0.51205602316782906</v>
+        <v>0.51886605901012295</v>
       </c>
       <c r="K4" s="6">
-        <v>0.405017756581661</v>
+        <v>0.40578069641032</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
-        <v>0.44219770830484167</v>
+        <v>0.44387284906513763</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1275,17 +1548,17 @@
         <v>20</v>
       </c>
       <c r="B5" s="6">
-        <v>0.55160691680575102</v>
+        <v>0.555474360658609</v>
       </c>
       <c r="C5" s="6">
-        <v>0.59923595686182496</v>
+        <v>0.60054115221736304</v>
       </c>
       <c r="D5" s="6">
-        <v>0.49286878977899101</v>
+        <v>0.50986321821386904</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>0.54790388781552235</v>
+        <v>0.55529291036328032</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1293,197 +1566,197 @@
         <v>20</v>
       </c>
       <c r="I5" s="6">
-        <v>0.39032199463408501</v>
+        <v>0.38882137852513499</v>
       </c>
       <c r="J5" s="6">
-        <v>0.46810744562600998</v>
+        <v>0.46902277743379001</v>
       </c>
       <c r="K5" s="6">
-        <v>0.346657346677397</v>
+        <v>0.34840169388322401</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="1"/>
-        <v>0.40169559564583063</v>
+        <v>0.40208194994738294</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6">
-        <v>0.364513063803519</v>
+        <v>0.56169634202943897</v>
       </c>
       <c r="C6" s="6">
-        <v>0.47661611604535298</v>
+        <v>0.59227915549754595</v>
       </c>
       <c r="D6" s="6">
-        <v>0.45437259914933997</v>
+        <v>0.54437577993310604</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>0.43183392633273732</v>
+        <v>0.56611709248669706</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="6">
-        <v>0.303051264918969</v>
+        <v>0.43218772651798798</v>
       </c>
       <c r="J6" s="6">
-        <v>0.35124258010381099</v>
+        <v>0.46714290392451302</v>
       </c>
       <c r="K6" s="6">
-        <v>0.30942915926422698</v>
+        <v>0.41756057590713203</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="1"/>
-        <v>0.3212410014290023</v>
+        <v>0.43896373544987766</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6">
-        <v>0.55443062693239797</v>
+        <v>0.49403411702518801</v>
       </c>
       <c r="C7" s="6">
-        <v>0.59125034891318395</v>
+        <v>0.61045794198203596</v>
       </c>
       <c r="D7" s="6">
-        <v>0.54088393775724197</v>
+        <v>0.53469688215365396</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>0.5621883045342746</v>
+        <v>0.54639631372029263</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="6">
-        <v>0.43318226968120599</v>
+        <v>0.34108809064166201</v>
       </c>
       <c r="J7" s="6">
-        <v>0.46611409734015102</v>
+        <v>0.429125680012929</v>
       </c>
       <c r="K7" s="6">
-        <v>0.41371385483877599</v>
+        <v>0.37986890163378501</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="1"/>
-        <v>0.43767007395337765</v>
+        <v>0.38336089076279206</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>0.49699652884176698</v>
+        <v>0.59527838833603497</v>
       </c>
       <c r="C8" s="6">
-        <v>0.60961754205441498</v>
+        <v>0.58910712542229904</v>
       </c>
       <c r="D8" s="6">
-        <v>0.54622633648558405</v>
+        <v>0.56442494245306496</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>0.55094680246058869</v>
+        <v>0.58293681873713299</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" s="6">
-        <v>0.341115647960886</v>
+        <v>0.43555739743058403</v>
       </c>
       <c r="J8" s="6">
-        <v>0.42843267982702798</v>
+        <v>0.45557770759206401</v>
       </c>
       <c r="K8" s="6">
-        <v>0.39196877405085701</v>
+        <v>0.38346704937312898</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="1"/>
-        <v>0.38717236727959037</v>
+        <v>0.42486738479859237</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6">
-        <v>0.59527838833603497</v>
+        <v>0.52104457398574999</v>
       </c>
       <c r="C9" s="6">
-        <v>0.58784495448829299</v>
+        <v>0.61441997901238998</v>
       </c>
       <c r="D9" s="6">
-        <v>0.53212539175057705</v>
+        <v>0.52056519146960001</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>0.57174957819163497</v>
+        <v>0.55200991482257999</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="6">
-        <v>0.43555739743058403</v>
+        <v>0.367433119393903</v>
       </c>
       <c r="J9" s="6">
-        <v>0.45441570895440703</v>
+        <v>0.453467491389899</v>
       </c>
       <c r="K9" s="6">
-        <v>0.365022842061546</v>
+        <v>0.344423853677152</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="1"/>
-        <v>0.41833198281551232</v>
+        <v>0.38844148815365132</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6">
-        <v>0.52104457398574999</v>
+        <v>0.45838506488426201</v>
       </c>
       <c r="C10" s="6">
-        <v>0.60441090612299198</v>
+        <v>0.60444673362520296</v>
       </c>
       <c r="D10" s="6">
-        <v>0.53742179951271796</v>
+        <v>0.50771904180342797</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" ref="E10" si="2">SUM(B10:D10)/3</f>
-        <v>0.5542924265404866</v>
+        <v>0.52351694677096428</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I10" s="6">
-        <v>0.36831495360907102</v>
+        <v>0.31922308011998601</v>
       </c>
       <c r="J10" s="6">
-        <v>0.44924888676561497</v>
+        <v>0.43448364666494899</v>
       </c>
       <c r="K10" s="6">
-        <v>0.38717885259639501</v>
+        <v>0.34678796567424602</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ref="L10" si="3">SUM(I10:K10)/3</f>
-        <v>0.40158089765702698</v>
+        <v>0.36683156415306034</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,11 +1771,11 @@
       </c>
       <c r="D11" s="11" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
-        <v>v2.1-unstruct</v>
+        <v>v2.1-custom1</v>
       </c>
       <c r="E11" s="12" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
-        <v>v2.1-unstruct</v>
+        <v>v2.1-custom1</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1575,11 +1848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC60521-07AC-4A58-A8B9-7F9C46143BF8}">
-  <dimension ref="A2:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BFA5EB-567E-4227-9DD9-3281E0609878}">
+  <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,17 +1909,17 @@
         <v>19</v>
       </c>
       <c r="B4" s="17">
-        <v>0.51418724135073102</v>
+        <v>0.51732867597054299</v>
       </c>
       <c r="C4" s="6">
-        <v>0.65752632163805003</v>
+        <v>0.65595952914717603</v>
       </c>
       <c r="D4" s="6">
-        <v>0.55939154720565198</v>
+        <v>0.55734079035108197</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
-        <v>0.57703503673147771</v>
+        <v>0.57687633182293363</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1654,17 +1927,17 @@
         <v>19</v>
       </c>
       <c r="I4" s="6">
-        <v>0.40091393630130001</v>
+        <v>0.40951934516503502</v>
       </c>
       <c r="J4" s="6">
-        <v>0.51272474295984105</v>
+        <v>0.51205602316782906</v>
       </c>
       <c r="K4" s="6">
-        <v>0.40620984172796898</v>
+        <v>0.405017756581661</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
-        <v>0.43994950699636998</v>
+        <v>0.44219770830484167</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1672,17 +1945,17 @@
         <v>20</v>
       </c>
       <c r="B5" s="6">
-        <v>0.55198222628754201</v>
+        <v>0.55160691680575102</v>
       </c>
       <c r="C5" s="6">
-        <v>0.60014959361070197</v>
+        <v>0.59923595686182496</v>
       </c>
       <c r="D5" s="6">
-        <v>0.54181469908542201</v>
+        <v>0.49286878977899101</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>0.56464883966122204</v>
+        <v>0.54790388781552235</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1690,17 +1963,17 @@
         <v>20</v>
       </c>
       <c r="I5" s="6">
-        <v>0.39034362504565001</v>
+        <v>0.39032199463408501</v>
       </c>
       <c r="J5" s="6">
-        <v>0.46874817789145601</v>
+        <v>0.46810744562600998</v>
       </c>
       <c r="K5" s="6">
-        <v>0.36825546704949302</v>
+        <v>0.346657346677397</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="1"/>
-        <v>0.40911575666219968</v>
+        <v>0.40169559564583063</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1708,17 +1981,17 @@
         <v>21</v>
       </c>
       <c r="B6" s="6">
-        <v>0.36788831285463502</v>
+        <v>0.364513063803519</v>
       </c>
       <c r="C6" s="6">
-        <v>0.47544811103961698</v>
+        <v>0.47661611604535298</v>
       </c>
       <c r="D6" s="6">
-        <v>0.48709566531558002</v>
+        <v>0.45437259914933997</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>0.44347736306994401</v>
+        <v>0.43183392633273732</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1726,17 +1999,17 @@
         <v>21</v>
       </c>
       <c r="I6" s="6">
-        <v>0.30366929283857802</v>
+        <v>0.303051264918969</v>
       </c>
       <c r="J6" s="6">
-        <v>0.34937006414223498</v>
+        <v>0.35124258010381099</v>
       </c>
       <c r="K6" s="6">
-        <v>0.30551202472927802</v>
+        <v>0.30942915926422698</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="1"/>
-        <v>0.31951712723669701</v>
+        <v>0.3212410014290023</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1744,17 +2017,17 @@
         <v>22</v>
       </c>
       <c r="B7" s="6">
-        <v>0.55506954624601601</v>
+        <v>0.55443062693239797</v>
       </c>
       <c r="C7" s="6">
-        <v>0.58665307518651899</v>
+        <v>0.59125034891318395</v>
       </c>
       <c r="D7" s="6">
-        <v>0.53484418308495696</v>
+        <v>0.54088393775724197</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>0.55885560150583069</v>
+        <v>0.5621883045342746</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1762,17 +2035,17 @@
         <v>22</v>
       </c>
       <c r="I7" s="6">
-        <v>0.43330396859808601</v>
+        <v>0.43318226968120599</v>
       </c>
       <c r="J7" s="6">
-        <v>0.46170557350449298</v>
+        <v>0.46611409734015102</v>
       </c>
       <c r="K7" s="6">
-        <v>0.38452996480186002</v>
+        <v>0.41371385483877599</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="1"/>
-        <v>0.42651316896814634</v>
+        <v>0.43767007395337765</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1780,17 +2053,17 @@
         <v>23</v>
       </c>
       <c r="B8" s="6">
-        <v>0.49393845375988199</v>
+        <v>0.49699652884176698</v>
       </c>
       <c r="C8" s="6">
-        <v>0.61039622246798397</v>
+        <v>0.60961754205441498</v>
       </c>
       <c r="D8" s="6">
-        <v>0.53539768188982395</v>
+        <v>0.54622633648558405</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>0.54657745270589653</v>
+        <v>0.55094680246058869</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1798,17 +2071,17 @@
         <v>23</v>
       </c>
       <c r="I8" s="6">
-        <v>0.34208724030152599</v>
+        <v>0.341115647960886</v>
       </c>
       <c r="J8" s="6">
-        <v>0.42878683997834899</v>
+        <v>0.42843267982702798</v>
       </c>
       <c r="K8" s="6">
-        <v>0.38893120410444798</v>
+        <v>0.39196877405085701</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="1"/>
-        <v>0.38660176146144098</v>
+        <v>0.38717236727959037</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1819,14 +2092,14 @@
         <v>0.59527838833603497</v>
       </c>
       <c r="C9" s="6">
-        <v>0.58861056357336194</v>
+        <v>0.58784495448829299</v>
       </c>
       <c r="D9" s="6">
-        <v>0.56606340562149304</v>
+        <v>0.53212539175057705</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>0.58331745251029665</v>
+        <v>0.57174957819163497</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1837,14 +2110,14 @@
         <v>0.43555739743058403</v>
       </c>
       <c r="J9" s="6">
-        <v>0.454614809398038</v>
+        <v>0.45441570895440703</v>
       </c>
       <c r="K9" s="6">
-        <v>0.388651714988685</v>
+        <v>0.365022842061546</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="1"/>
-        <v>0.42627464060576897</v>
+        <v>0.41833198281551232</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1852,17 +2125,17 @@
         <v>25</v>
       </c>
       <c r="B10" s="6">
-        <v>0.51839037596302595</v>
+        <v>0.52104457398574999</v>
       </c>
       <c r="C10" s="6">
-        <v>0.61663256650652098</v>
+        <v>0.60441090612299198</v>
       </c>
       <c r="D10" s="6">
-        <v>0.51998983545657895</v>
+        <v>0.53742179951271796</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" ref="E10" si="2">SUM(B10:D10)/3</f>
-        <v>0.55167092597537526</v>
+        <v>0.5542924265404866</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1870,17 +2143,17 @@
         <v>25</v>
       </c>
       <c r="I10" s="6">
-        <v>0.36481862147728</v>
+        <v>0.36831495360907102</v>
       </c>
       <c r="J10" s="6">
-        <v>0.45340539500627303</v>
+        <v>0.44924888676561497</v>
       </c>
       <c r="K10" s="6">
-        <v>0.345648093628183</v>
+        <v>0.38717885259639501</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ref="L10" si="3">SUM(I10:K10)/3</f>
-        <v>0.38795737003724534</v>
+        <v>0.40158089765702698</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1895,11 +2168,11 @@
       </c>
       <c r="D11" s="11" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
-        <v>v2.1-custom1</v>
+        <v>v2.1-unstruct</v>
       </c>
       <c r="E11" s="12" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
-        <v>v2.1-custom1</v>
+        <v>v2.1-unstruct</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1914,7 +2187,7 @@
       </c>
       <c r="K11" s="11" t="str">
         <f>INDEX($H4:$H10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
-        <v>v2.1-unstruct</v>
+        <v>v2.1-json</v>
       </c>
       <c r="L11" s="19" t="str">
         <f>INDEX($H4:$H10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
@@ -1935,14 +2208,7 @@
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1979,6 +2245,410 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC60521-07AC-4A58-A8B9-7F9C46143BF8}">
+  <dimension ref="A2:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="I2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.51418724135073102</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.65752632163805003</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.55939154720565198</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
+        <v>0.57703503673147771</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.40091393630130001</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.51272474295984105</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.40620984172796898</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
+        <v>0.43994950699636998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.55198222628754201</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.60014959361070197</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.54181469908542201</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.56464883966122204</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.39034362504565001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.46874817789145601</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.36825546704949302</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.40911575666219968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.36788831285463502</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.47544811103961698</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.48709566531558002</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44347736306994401</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.30366929283857802</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.34937006414223498</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.30551202472927802</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.31951712723669701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.55506954624601601</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.58665307518651899</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.53484418308495696</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55885560150583069</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.43330396859808601</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.46170557350449298</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.38452996480186002</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42651316896814634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.49393845375988199</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.61039622246798397</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.53539768188982395</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54657745270589653</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.34208724030152599</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.42878683997834899</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.38893120410444798</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38660176146144098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.59527838833603497</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.58861056357336194</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.56606340562149304</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58331745251029665</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.43555739743058403</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.454614809398038</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.388651714988685</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42627464060576897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.51839037596302595</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.61663256650652098</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.51998983545657895</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10" si="2">SUM(B10:D10)/3</f>
+        <v>0.55167092597537526</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.36481862147728</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.45340539500627303</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.345648093628183</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10" si="3">SUM(I10:K10)/3</f>
+        <v>0.38795737003724534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(I4:I10), I4:I10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(J4:J10), J4:J10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="L11" s="19" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:K10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E121A363-FC9D-421C-B4C0-C742E7C05D40}">
   <dimension ref="A2:L20"/>
   <sheetViews>
@@ -2382,7 +3052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47B1458-BA4B-4EAE-BCE9-A2C3FC37BD74}">
   <dimension ref="A2:L21"/>
   <sheetViews>
@@ -2829,7 +3499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA7B5C7-8A33-4FD1-986B-A27316631CA2}">
   <dimension ref="A2:L15"/>
   <sheetViews>
@@ -3189,7 +3859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525F6779-DD0B-49D7-B276-92B104E5F465}">
   <dimension ref="A2:L10"/>
   <sheetViews>
@@ -3533,7 +4203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA93D1B-782E-46E2-8D44-78C4206E258C}">
   <dimension ref="A2:L10"/>
   <sheetViews>
@@ -3885,7 +4555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3891B14-8636-44EC-9D3D-F5390233C3F1}">
   <dimension ref="A2:P12"/>
   <sheetViews>

--- a/results/Overall_score_analysis.xlsx
+++ b/results/Overall_score_analysis.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashvinn\Documents\GitHub\LLM_Interpretability_Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1476D899-955F-4380-B454-D6DE3F4D1C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B288231-6AA4-497A-B378-9AB98022D3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FE4610ED-2644-4B09-8F25-61DCA81DFAD7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet9" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="79">
   <si>
     <t>ROUGE 1</t>
   </si>
@@ -131,6 +132,156 @@
   </si>
   <si>
     <t>v2.1-custom4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>Q27</t>
+  </si>
+  <si>
+    <t>Q28</t>
+  </si>
+  <si>
+    <t>Q29</t>
+  </si>
+  <si>
+    <t>Q30</t>
+  </si>
+  <si>
+    <t>Q31</t>
+  </si>
+  <si>
+    <t>Q32</t>
+  </si>
+  <si>
+    <t>Q33</t>
+  </si>
+  <si>
+    <t>Q34</t>
+  </si>
+  <si>
+    <t>Q35</t>
+  </si>
+  <si>
+    <t>Q36</t>
+  </si>
+  <si>
+    <t>Q37</t>
+  </si>
+  <si>
+    <t>Q38</t>
+  </si>
+  <si>
+    <t>Q39</t>
+  </si>
+  <si>
+    <t>Q40</t>
+  </si>
+  <si>
+    <t>Q41</t>
+  </si>
+  <si>
+    <t>Q42</t>
+  </si>
+  <si>
+    <t>Q43</t>
+  </si>
+  <si>
+    <t>Q44</t>
+  </si>
+  <si>
+    <t>Q45</t>
+  </si>
+  <si>
+    <t>Q46</t>
+  </si>
+  <si>
+    <t>Q47</t>
+  </si>
+  <si>
+    <t>Q48</t>
+  </si>
+  <si>
+    <t>Q49</t>
+  </si>
+  <si>
+    <t>Q50</t>
   </si>
 </sst>
 </file>
@@ -277,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -337,6 +488,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +508,3357 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1-unstruct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$B$3:$AY$3</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Q32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Q33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Q34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Q35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Q36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Q37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Q38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Q39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Q40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Q41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Q42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Q43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Q44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Q45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Q46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Q47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Q48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Q49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Q50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$4:$AY$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.50955696983818199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65595952914717603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.556434678234494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38054069848546901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37022490851668999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43272417052734302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26174438687391999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23798451999671499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39670351752549698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47737026619762402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25987077363190197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67191745917212398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56110988064476397</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41491150241636499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42687357774398299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35633284452486902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64364143574483901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.472778774203367</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40096554778120902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42578204861718599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38499926286303998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60027976515542103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56112356523093398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58351061050253095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.42771783396705798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52769433780514696</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.48637172168445397</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38637172168445399</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54972069630619003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51238524849635902</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49409109927730399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.42060283162668</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28579965081228398</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46927230779304202</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.53323913900076303</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.54474995553618599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46745412251662299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.396992645385362</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.48635435466662902</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45491997087985803</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.240053630590049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.48204260548127398</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.47048574207013999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.64251609519267106</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63500529789465698</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.32521938981623799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37494775458276502</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.58923774738775603</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.53265294611595104</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.34499940931172601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C6E-4879-BAB5-F034A5474330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1-md</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$B$3:$AY$3</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Q32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Q33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Q34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Q35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Q36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Q37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Q38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Q39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Q40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Q41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Q42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Q43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Q44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Q45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Q46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Q47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Q48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Q49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Q50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$5:$AY$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.54728189328019805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60054115221736304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51979225488672098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38429662747972598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29010842549154803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39014177309325898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35403505149880798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32210791469512401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39855610145142101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47738415553645103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38757344206021999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58290836839641103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53409902250779395</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37310492282950602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51130172206811197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33097612175848601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60981216141226702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.403803508656146</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43682407249366201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38259480704744098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42693489786303601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48025124908040001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54530346837251198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57415170108690905</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38881110636418398</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56631023597740204</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44622067833034301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.44622067833034301</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50035837253986504</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.498394338087153</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.447618439104293</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.40153054321474402</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43000907141649602</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.38375354889186403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50462626045667203</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.55008125534441299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.52327481315175794</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.42759632265917202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.47686161247893399</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.52558165361763498</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32361397281215698</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.374639296831077</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.48224345707729299</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.61950041501270603</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.618365046140261</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.30924335471926201</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32594507859511401</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.51681373658862895</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.44098386357330599</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.33153058373230798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C6E-4879-BAB5-F034A5474330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1-json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$B$3:$AY$3</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Q32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Q33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Q34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Q35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Q36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Q37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Q38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Q39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Q40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Q41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Q42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Q43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Q44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Q45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Q46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Q47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Q48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Q49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Q50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$6:$AY$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.55506954624601601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.588802498764184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52442877396629595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35629337500799002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36620064061305002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39728178293160199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32340166598346698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26845072059507202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32825592683932298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43429856680906898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35733631934210403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55571960817327404</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55009855989956502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35944075223057798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49299214852579898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38829878990608102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.494639541949627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41410661939077598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.479484897401737</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56525943047682103</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46953171851929099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57279833502296795</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52991041811140005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57345364368461904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38196795605498102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.594876739538717</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41911552272097702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.41911552272097702</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50034985773054497</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53133969462205999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.47711867294330901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.41236596472863501</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43216852438837999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.457639048053748</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.47061502154284002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61462122089655902</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.52278039719324998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40639206726611599</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.44223791514916699</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.49431431091636602</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.408935734866608</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.57517323932060505</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.44615533763172999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.54122443500801598</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62443616634893295</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.34574856196109999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.39874961051010799</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.57629386899481505</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49752277441623199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.33755228105526702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C6E-4879-BAB5-F034A5474330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1-html</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$B$3:$AY$3</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Q32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Q33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Q34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Q35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Q36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Q37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Q38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Q39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Q40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Q41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Q42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Q43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Q44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Q45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Q46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Q47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Q48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Q49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Q50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$7:$AY$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.49387467824967801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61072384316071604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52469923454132805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39847039816551999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35334086036144202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40927021534473501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33809273572099102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36232959094221701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38178912117108399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45516243612067803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.341064475902432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48400086444435603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50697023283230103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37647772798901802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55387891659815403</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32528737573389999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64943334354120397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42311852632913999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36649392260067998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52004661991400303</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.440951377476346</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.551702160548876</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52434578674431398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48551420283575503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.39027506809528301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.520620425075351</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41117090368242398</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.41117090368242398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54006939327819703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56112771561812003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.447385947385947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.37268581151779001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46345906225924599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.39288243751326302</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.56030910381745302</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60582192124242595</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47829768797510702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37039035952410099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.44788523354930898</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.52460512706765705</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34452866153739498</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.43790612476301699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.48983864860043302</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.560413959948031</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.61432355729043597</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.319253749080741</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41633523146768597</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53190274214901601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47348534010251703</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.34348276428039098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2C6E-4879-BAB5-F034A5474330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1-custom1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$B$3:$AY$3</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Q32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Q33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Q34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Q35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Q36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Q37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Q38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Q39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Q40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Q41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Q42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Q43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Q44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Q45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Q46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Q47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Q48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Q49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Q50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$8:$AY$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.59544688579237104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59158993466698595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.575190197492355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36771402153761401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.366142690910017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38750091658140201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33356412761631599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3414659868703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39100195131041399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41883480824935598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35363332649693502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40941084803665001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52269747894667795</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39536560498335799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52639870903816399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32462631432908201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58868215118215095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39194528706750398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46159655131892602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.542872274731375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44880251674446903</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58750590797012403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54896193652481795</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.59587513559373595</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38656099656850901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.53497973394967802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.49596564899935602</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.53596564899935595</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.526194096012919</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.47458716508045701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.44842199301735203</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.39977184684956502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.40901927214331102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36373798185275602</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.53552181812923005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64515656607262095</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51134546248633495</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40411273699568001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.48879695242295301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.50915643489947904</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.333361535144301</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.47568943622444798</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.44506040093702198</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.50543636257921898</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.51759680811815101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.32103730802234998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.33642840882286001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53264249344829495</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.45924263018461198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.30302965881819299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2C6E-4879-BAB5-F034A5474330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1-custom2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$B$3:$AY$3</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Q32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Q33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Q34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Q35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Q36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Q37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Q38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Q39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Q40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Q41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Q42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Q43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Q44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Q45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Q46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Q47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Q48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Q49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Q50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$9:$AY$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.51718654929439201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61399184064033396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54545073274858402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31862440087512101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39344125179898598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38248228379807298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31446551909002202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30219349266779399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41553936924884199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42960372684746501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34289608802438198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50395776700496597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48087018026801198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38020389727706799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53905851062606303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32365698315399299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59255034556286101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45991088576143402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42314203941033102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60737828429594898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46942056422570699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.526675642597903</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56940304293114397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58197482179381599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34560194679664702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51731468936452596</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.45352431663806098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45352431663806098</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.55121622902644796</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51505223034348502</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.441168069117165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.37078840599331597</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43756622706924903</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.345604789931306</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.54585835942058603</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.617864079267891</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48546194355719702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33414416075898901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.43614333310571002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55828305348113205</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.35189059347065899</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.44508105691204197</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.47310023434586401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57649183296045103</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63697549363614003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37118369087814002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.34646493325787497</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52970826452779696</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.45189911602053801</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.31391141117026899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2C6E-4879-BAB5-F034A5474330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1-custom4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$B$3:$AY$3</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Q32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Q33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Q34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Q35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Q36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Q37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Q38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Q39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Q40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Q41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Q42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Q43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Q44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Q45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Q46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Q47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Q48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Q49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Q50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$10:$AY$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.50095715727185297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60444673362520296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53332010481283099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42582548970697298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36112600534405798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37960685943974398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35438886471040898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33306538212806502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38442582607919101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43930878804939499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33493808487502502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48012781506036301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47401250054441901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37661696350882801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.413737407019099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33621015340729798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62369465888770204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39423605003467199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42411706626330298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32405245064691501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42258308037631198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61744047077380404</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.456170538757602</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.54638828186784305</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35106646986193402</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.53899030193558894</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.48989717412487499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.48989717412487499</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50641552645355303</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.48696326650009703</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41987824443500099</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.403645478413931</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.29107699534774401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.38821591740043998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50543973388405705</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53629370418202904</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48863813547275398</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45996266604282199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25264966188287102</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51300446437542802</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.35846091068827801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.49883161664800402</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.47621530729801398</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.65354194640622998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.61919281816486405</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.380486884792202</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.34978409514908099</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47112717237938301</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.51149185607566405</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.325817367920328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2C6E-4879-BAB5-F034A5474330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="205058751"/>
+        <c:axId val="205059231"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="205058751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205059231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205059231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205058751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111701</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>117764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139119</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C41368-B0B8-8EBB-AC74-E4A7E79DA199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="5900" t="6000" r="9500"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="111701" y="10023764"/>
+          <a:ext cx="4911145" cy="3293918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E820051C-BF4C-8228-1A94-EB2D734E560F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect r="15680"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="4752974"/>
+          <a:ext cx="5019675" cy="3571875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8821526-1C71-9EB0-39A6-D1AE75243196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -623,7 +4127,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -892,7 +4396,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -940,7 +4444,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -989,7 +4493,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1038,7 +4542,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1087,7 +4591,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1451,11 +4955,3533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195BC028-0DAC-4A09-A7DF-8F0055BE1EC3}">
+  <dimension ref="A2:AZ27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" customWidth="1"/>
+    <col min="52" max="52" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ3" s="23"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.50955696983818199</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.65595952914717603</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.556434678234494</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.38054069848546901</v>
+      </c>
+      <c r="F4">
+        <v>0.37022490851668999</v>
+      </c>
+      <c r="G4">
+        <v>0.43272417052734302</v>
+      </c>
+      <c r="H4">
+        <v>0.26174438687391999</v>
+      </c>
+      <c r="I4">
+        <v>0.23798451999671499</v>
+      </c>
+      <c r="J4">
+        <v>0.39670351752549698</v>
+      </c>
+      <c r="K4">
+        <v>0.47737026619762402</v>
+      </c>
+      <c r="L4">
+        <v>0.25987077363190197</v>
+      </c>
+      <c r="M4">
+        <v>0.67191745917212398</v>
+      </c>
+      <c r="N4">
+        <v>0.56110988064476397</v>
+      </c>
+      <c r="O4">
+        <v>0.41491150241636499</v>
+      </c>
+      <c r="P4">
+        <v>0.42687357774398299</v>
+      </c>
+      <c r="Q4">
+        <v>0.35633284452486902</v>
+      </c>
+      <c r="R4">
+        <v>0.64364143574483901</v>
+      </c>
+      <c r="S4">
+        <v>0.472778774203367</v>
+      </c>
+      <c r="T4">
+        <v>0.40096554778120902</v>
+      </c>
+      <c r="U4">
+        <v>0.42578204861718599</v>
+      </c>
+      <c r="V4">
+        <v>0.38499926286303998</v>
+      </c>
+      <c r="W4">
+        <v>0.60027976515542103</v>
+      </c>
+      <c r="X4">
+        <v>0.56112356523093398</v>
+      </c>
+      <c r="Y4">
+        <v>0.58351061050253095</v>
+      </c>
+      <c r="Z4">
+        <v>0.42771783396705798</v>
+      </c>
+      <c r="AA4">
+        <v>0.52769433780514696</v>
+      </c>
+      <c r="AB4">
+        <v>0.48637172168445397</v>
+      </c>
+      <c r="AC4">
+        <v>0.38637172168445399</v>
+      </c>
+      <c r="AD4">
+        <v>0.54972069630619003</v>
+      </c>
+      <c r="AE4">
+        <v>0.51238524849635902</v>
+      </c>
+      <c r="AF4">
+        <v>0.49409109927730399</v>
+      </c>
+      <c r="AG4">
+        <v>0.42060283162668</v>
+      </c>
+      <c r="AH4">
+        <v>0.28579965081228398</v>
+      </c>
+      <c r="AI4">
+        <v>0.46927230779304202</v>
+      </c>
+      <c r="AJ4">
+        <v>0.53323913900076303</v>
+      </c>
+      <c r="AK4">
+        <v>0.54474995553618599</v>
+      </c>
+      <c r="AL4">
+        <v>0.46745412251662299</v>
+      </c>
+      <c r="AM4">
+        <v>0.396992645385362</v>
+      </c>
+      <c r="AN4">
+        <v>0.48635435466662902</v>
+      </c>
+      <c r="AO4">
+        <v>0.45491997087985803</v>
+      </c>
+      <c r="AP4">
+        <v>0.240053630590049</v>
+      </c>
+      <c r="AQ4">
+        <v>0.48204260548127398</v>
+      </c>
+      <c r="AR4">
+        <v>0.47048574207013999</v>
+      </c>
+      <c r="AS4">
+        <v>0.64251609519267106</v>
+      </c>
+      <c r="AT4">
+        <v>0.63500529789465698</v>
+      </c>
+      <c r="AU4">
+        <v>0.32521938981623799</v>
+      </c>
+      <c r="AV4">
+        <v>0.37494775458276502</v>
+      </c>
+      <c r="AW4">
+        <v>0.58923774738775603</v>
+      </c>
+      <c r="AX4">
+        <v>0.53265294611595104</v>
+      </c>
+      <c r="AY4">
+        <v>0.34499940931172601</v>
+      </c>
+      <c r="AZ4" s="8">
+        <f>SUM(B4:AY4)/50</f>
+        <v>0.46248477898914536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.54728189328019805</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.60054115221736304</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.51979225488672098</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.38429662747972598</v>
+      </c>
+      <c r="F5">
+        <v>0.29010842549154803</v>
+      </c>
+      <c r="G5">
+        <v>0.39014177309325898</v>
+      </c>
+      <c r="H5">
+        <v>0.35403505149880798</v>
+      </c>
+      <c r="I5">
+        <v>0.32210791469512401</v>
+      </c>
+      <c r="J5">
+        <v>0.39855610145142101</v>
+      </c>
+      <c r="K5">
+        <v>0.47738415553645103</v>
+      </c>
+      <c r="L5">
+        <v>0.38757344206021999</v>
+      </c>
+      <c r="M5">
+        <v>0.58290836839641103</v>
+      </c>
+      <c r="N5">
+        <v>0.53409902250779395</v>
+      </c>
+      <c r="O5">
+        <v>0.37310492282950602</v>
+      </c>
+      <c r="P5">
+        <v>0.51130172206811197</v>
+      </c>
+      <c r="Q5">
+        <v>0.33097612175848601</v>
+      </c>
+      <c r="R5">
+        <v>0.60981216141226702</v>
+      </c>
+      <c r="S5">
+        <v>0.403803508656146</v>
+      </c>
+      <c r="T5">
+        <v>0.43682407249366201</v>
+      </c>
+      <c r="U5">
+        <v>0.38259480704744098</v>
+      </c>
+      <c r="V5">
+        <v>0.42693489786303601</v>
+      </c>
+      <c r="W5">
+        <v>0.48025124908040001</v>
+      </c>
+      <c r="X5">
+        <v>0.54530346837251198</v>
+      </c>
+      <c r="Y5">
+        <v>0.57415170108690905</v>
+      </c>
+      <c r="Z5">
+        <v>0.38881110636418398</v>
+      </c>
+      <c r="AA5">
+        <v>0.56631023597740204</v>
+      </c>
+      <c r="AB5">
+        <v>0.44622067833034301</v>
+      </c>
+      <c r="AC5">
+        <v>0.44622067833034301</v>
+      </c>
+      <c r="AD5">
+        <v>0.50035837253986504</v>
+      </c>
+      <c r="AE5">
+        <v>0.498394338087153</v>
+      </c>
+      <c r="AF5">
+        <v>0.447618439104293</v>
+      </c>
+      <c r="AG5">
+        <v>0.40153054321474402</v>
+      </c>
+      <c r="AH5">
+        <v>0.43000907141649602</v>
+      </c>
+      <c r="AI5">
+        <v>0.38375354889186403</v>
+      </c>
+      <c r="AJ5">
+        <v>0.50462626045667203</v>
+      </c>
+      <c r="AK5">
+        <v>0.55008125534441299</v>
+      </c>
+      <c r="AL5">
+        <v>0.52327481315175794</v>
+      </c>
+      <c r="AM5">
+        <v>0.42759632265917202</v>
+      </c>
+      <c r="AN5">
+        <v>0.47686161247893399</v>
+      </c>
+      <c r="AO5">
+        <v>0.52558165361763498</v>
+      </c>
+      <c r="AP5">
+        <v>0.32361397281215698</v>
+      </c>
+      <c r="AQ5">
+        <v>0.374639296831077</v>
+      </c>
+      <c r="AR5">
+        <v>0.48224345707729299</v>
+      </c>
+      <c r="AS5">
+        <v>0.61950041501270603</v>
+      </c>
+      <c r="AT5">
+        <v>0.618365046140261</v>
+      </c>
+      <c r="AU5">
+        <v>0.30924335471926201</v>
+      </c>
+      <c r="AV5">
+        <v>0.32594507859511401</v>
+      </c>
+      <c r="AW5">
+        <v>0.51681373658862895</v>
+      </c>
+      <c r="AX5">
+        <v>0.44098386357330599</v>
+      </c>
+      <c r="AY5">
+        <v>0.33153058373230798</v>
+      </c>
+      <c r="AZ5" s="8">
+        <f t="shared" ref="AZ5:AZ10" si="0">SUM(B5:AY5)/50</f>
+        <v>0.45448025100621814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.55506954624601601</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.588802498764184</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.52442877396629595</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.35629337500799002</v>
+      </c>
+      <c r="F6">
+        <v>0.36620064061305002</v>
+      </c>
+      <c r="G6">
+        <v>0.39728178293160199</v>
+      </c>
+      <c r="H6">
+        <v>0.32340166598346698</v>
+      </c>
+      <c r="I6">
+        <v>0.26845072059507202</v>
+      </c>
+      <c r="J6">
+        <v>0.32825592683932298</v>
+      </c>
+      <c r="K6">
+        <v>0.43429856680906898</v>
+      </c>
+      <c r="L6">
+        <v>0.35733631934210403</v>
+      </c>
+      <c r="M6">
+        <v>0.55571960817327404</v>
+      </c>
+      <c r="N6">
+        <v>0.55009855989956502</v>
+      </c>
+      <c r="O6">
+        <v>0.35944075223057798</v>
+      </c>
+      <c r="P6">
+        <v>0.49299214852579898</v>
+      </c>
+      <c r="Q6">
+        <v>0.38829878990608102</v>
+      </c>
+      <c r="R6">
+        <v>0.494639541949627</v>
+      </c>
+      <c r="S6">
+        <v>0.41410661939077598</v>
+      </c>
+      <c r="T6">
+        <v>0.479484897401737</v>
+      </c>
+      <c r="U6">
+        <v>0.56525943047682103</v>
+      </c>
+      <c r="V6">
+        <v>0.46953171851929099</v>
+      </c>
+      <c r="W6">
+        <v>0.57279833502296795</v>
+      </c>
+      <c r="X6">
+        <v>0.52991041811140005</v>
+      </c>
+      <c r="Y6">
+        <v>0.57345364368461904</v>
+      </c>
+      <c r="Z6">
+        <v>0.38196795605498102</v>
+      </c>
+      <c r="AA6">
+        <v>0.594876739538717</v>
+      </c>
+      <c r="AB6">
+        <v>0.41911552272097702</v>
+      </c>
+      <c r="AC6">
+        <v>0.41911552272097702</v>
+      </c>
+      <c r="AD6">
+        <v>0.50034985773054497</v>
+      </c>
+      <c r="AE6">
+        <v>0.53133969462205999</v>
+      </c>
+      <c r="AF6">
+        <v>0.47711867294330901</v>
+      </c>
+      <c r="AG6">
+        <v>0.41236596472863501</v>
+      </c>
+      <c r="AH6">
+        <v>0.43216852438837999</v>
+      </c>
+      <c r="AI6">
+        <v>0.457639048053748</v>
+      </c>
+      <c r="AJ6">
+        <v>0.47061502154284002</v>
+      </c>
+      <c r="AK6">
+        <v>0.61462122089655902</v>
+      </c>
+      <c r="AL6">
+        <v>0.52278039719324998</v>
+      </c>
+      <c r="AM6">
+        <v>0.40639206726611599</v>
+      </c>
+      <c r="AN6">
+        <v>0.44223791514916699</v>
+      </c>
+      <c r="AO6">
+        <v>0.49431431091636602</v>
+      </c>
+      <c r="AP6">
+        <v>0.408935734866608</v>
+      </c>
+      <c r="AQ6">
+        <v>0.57517323932060505</v>
+      </c>
+      <c r="AR6">
+        <v>0.44615533763172999</v>
+      </c>
+      <c r="AS6">
+        <v>0.54122443500801598</v>
+      </c>
+      <c r="AT6">
+        <v>0.62443616634893295</v>
+      </c>
+      <c r="AU6">
+        <v>0.34574856196109999</v>
+      </c>
+      <c r="AV6">
+        <v>0.39874961051010799</v>
+      </c>
+      <c r="AW6">
+        <v>0.57629386899481505</v>
+      </c>
+      <c r="AX6">
+        <v>0.49752277441623199</v>
+      </c>
+      <c r="AY6">
+        <v>0.33755228105526702</v>
+      </c>
+      <c r="AZ6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.4654872945394149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.49387467824967801</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.61072384316071604</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.52469923454132805</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.39847039816551999</v>
+      </c>
+      <c r="F7">
+        <v>0.35334086036144202</v>
+      </c>
+      <c r="G7">
+        <v>0.40927021534473501</v>
+      </c>
+      <c r="H7">
+        <v>0.33809273572099102</v>
+      </c>
+      <c r="I7">
+        <v>0.36232959094221701</v>
+      </c>
+      <c r="J7">
+        <v>0.38178912117108399</v>
+      </c>
+      <c r="K7">
+        <v>0.45516243612067803</v>
+      </c>
+      <c r="L7">
+        <v>0.341064475902432</v>
+      </c>
+      <c r="M7">
+        <v>0.48400086444435603</v>
+      </c>
+      <c r="N7">
+        <v>0.50697023283230103</v>
+      </c>
+      <c r="O7">
+        <v>0.37647772798901802</v>
+      </c>
+      <c r="P7">
+        <v>0.55387891659815403</v>
+      </c>
+      <c r="Q7">
+        <v>0.32528737573389999</v>
+      </c>
+      <c r="R7">
+        <v>0.64943334354120397</v>
+      </c>
+      <c r="S7">
+        <v>0.42311852632913999</v>
+      </c>
+      <c r="T7">
+        <v>0.36649392260067998</v>
+      </c>
+      <c r="U7">
+        <v>0.52004661991400303</v>
+      </c>
+      <c r="V7">
+        <v>0.440951377476346</v>
+      </c>
+      <c r="W7">
+        <v>0.551702160548876</v>
+      </c>
+      <c r="X7">
+        <v>0.52434578674431398</v>
+      </c>
+      <c r="Y7">
+        <v>0.48551420283575503</v>
+      </c>
+      <c r="Z7">
+        <v>0.39027506809528301</v>
+      </c>
+      <c r="AA7">
+        <v>0.520620425075351</v>
+      </c>
+      <c r="AB7">
+        <v>0.41117090368242398</v>
+      </c>
+      <c r="AC7">
+        <v>0.41117090368242398</v>
+      </c>
+      <c r="AD7">
+        <v>0.54006939327819703</v>
+      </c>
+      <c r="AE7">
+        <v>0.56112771561812003</v>
+      </c>
+      <c r="AF7">
+        <v>0.447385947385947</v>
+      </c>
+      <c r="AG7">
+        <v>0.37268581151779001</v>
+      </c>
+      <c r="AH7">
+        <v>0.46345906225924599</v>
+      </c>
+      <c r="AI7">
+        <v>0.39288243751326302</v>
+      </c>
+      <c r="AJ7">
+        <v>0.56030910381745302</v>
+      </c>
+      <c r="AK7">
+        <v>0.60582192124242595</v>
+      </c>
+      <c r="AL7">
+        <v>0.47829768797510702</v>
+      </c>
+      <c r="AM7">
+        <v>0.37039035952410099</v>
+      </c>
+      <c r="AN7">
+        <v>0.44788523354930898</v>
+      </c>
+      <c r="AO7">
+        <v>0.52460512706765705</v>
+      </c>
+      <c r="AP7">
+        <v>0.34452866153739498</v>
+      </c>
+      <c r="AQ7">
+        <v>0.43790612476301699</v>
+      </c>
+      <c r="AR7">
+        <v>0.48983864860043302</v>
+      </c>
+      <c r="AS7">
+        <v>0.560413959948031</v>
+      </c>
+      <c r="AT7">
+        <v>0.61432355729043597</v>
+      </c>
+      <c r="AU7">
+        <v>0.319253749080741</v>
+      </c>
+      <c r="AV7">
+        <v>0.41633523146768597</v>
+      </c>
+      <c r="AW7">
+        <v>0.53190274214901601</v>
+      </c>
+      <c r="AX7">
+        <v>0.47348534010251703</v>
+      </c>
+      <c r="AY7">
+        <v>0.34348276428039098</v>
+      </c>
+      <c r="AZ7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45813333055545252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.59544688579237104</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.59158993466698595</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.575190197492355</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.36771402153761401</v>
+      </c>
+      <c r="F8">
+        <v>0.366142690910017</v>
+      </c>
+      <c r="G8">
+        <v>0.38750091658140201</v>
+      </c>
+      <c r="H8">
+        <v>0.33356412761631599</v>
+      </c>
+      <c r="I8">
+        <v>0.3414659868703</v>
+      </c>
+      <c r="J8">
+        <v>0.39100195131041399</v>
+      </c>
+      <c r="K8">
+        <v>0.41883480824935598</v>
+      </c>
+      <c r="L8">
+        <v>0.35363332649693502</v>
+      </c>
+      <c r="M8">
+        <v>0.40941084803665001</v>
+      </c>
+      <c r="N8">
+        <v>0.52269747894667795</v>
+      </c>
+      <c r="O8">
+        <v>0.39536560498335799</v>
+      </c>
+      <c r="P8">
+        <v>0.52639870903816399</v>
+      </c>
+      <c r="Q8">
+        <v>0.32462631432908201</v>
+      </c>
+      <c r="R8">
+        <v>0.58868215118215095</v>
+      </c>
+      <c r="S8">
+        <v>0.39194528706750398</v>
+      </c>
+      <c r="T8">
+        <v>0.46159655131892602</v>
+      </c>
+      <c r="U8">
+        <v>0.542872274731375</v>
+      </c>
+      <c r="V8">
+        <v>0.44880251674446903</v>
+      </c>
+      <c r="W8">
+        <v>0.58750590797012403</v>
+      </c>
+      <c r="X8">
+        <v>0.54896193652481795</v>
+      </c>
+      <c r="Y8">
+        <v>0.59587513559373595</v>
+      </c>
+      <c r="Z8">
+        <v>0.38656099656850901</v>
+      </c>
+      <c r="AA8">
+        <v>0.53497973394967802</v>
+      </c>
+      <c r="AB8">
+        <v>0.49596564899935602</v>
+      </c>
+      <c r="AC8">
+        <v>0.53596564899935595</v>
+      </c>
+      <c r="AD8">
+        <v>0.526194096012919</v>
+      </c>
+      <c r="AE8">
+        <v>0.47458716508045701</v>
+      </c>
+      <c r="AF8">
+        <v>0.44842199301735203</v>
+      </c>
+      <c r="AG8">
+        <v>0.39977184684956502</v>
+      </c>
+      <c r="AH8">
+        <v>0.40901927214331102</v>
+      </c>
+      <c r="AI8">
+        <v>0.36373798185275602</v>
+      </c>
+      <c r="AJ8">
+        <v>0.53552181812923005</v>
+      </c>
+      <c r="AK8">
+        <v>0.64515656607262095</v>
+      </c>
+      <c r="AL8">
+        <v>0.51134546248633495</v>
+      </c>
+      <c r="AM8">
+        <v>0.40411273699568001</v>
+      </c>
+      <c r="AN8">
+        <v>0.48879695242295301</v>
+      </c>
+      <c r="AO8">
+        <v>0.50915643489947904</v>
+      </c>
+      <c r="AP8">
+        <v>0.333361535144301</v>
+      </c>
+      <c r="AQ8">
+        <v>0.47568943622444798</v>
+      </c>
+      <c r="AR8">
+        <v>0.44506040093702198</v>
+      </c>
+      <c r="AS8">
+        <v>0.50543636257921898</v>
+      </c>
+      <c r="AT8">
+        <v>0.51759680811815101</v>
+      </c>
+      <c r="AU8">
+        <v>0.32103730802234998</v>
+      </c>
+      <c r="AV8">
+        <v>0.33642840882286001</v>
+      </c>
+      <c r="AW8">
+        <v>0.53264249344829495</v>
+      </c>
+      <c r="AX8">
+        <v>0.45924263018461198</v>
+      </c>
+      <c r="AY8">
+        <v>0.30302965881819299</v>
+      </c>
+      <c r="AZ8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45931289921540219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.51718654929439201</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.61399184064033396</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.54545073274858402</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.31862440087512101</v>
+      </c>
+      <c r="F9">
+        <v>0.39344125179898598</v>
+      </c>
+      <c r="G9">
+        <v>0.38248228379807298</v>
+      </c>
+      <c r="H9">
+        <v>0.31446551909002202</v>
+      </c>
+      <c r="I9">
+        <v>0.30219349266779399</v>
+      </c>
+      <c r="J9">
+        <v>0.41553936924884199</v>
+      </c>
+      <c r="K9">
+        <v>0.42960372684746501</v>
+      </c>
+      <c r="L9">
+        <v>0.34289608802438198</v>
+      </c>
+      <c r="M9">
+        <v>0.50395776700496597</v>
+      </c>
+      <c r="N9">
+        <v>0.48087018026801198</v>
+      </c>
+      <c r="O9">
+        <v>0.38020389727706799</v>
+      </c>
+      <c r="P9">
+        <v>0.53905851062606303</v>
+      </c>
+      <c r="Q9">
+        <v>0.32365698315399299</v>
+      </c>
+      <c r="R9">
+        <v>0.59255034556286101</v>
+      </c>
+      <c r="S9">
+        <v>0.45991088576143402</v>
+      </c>
+      <c r="T9">
+        <v>0.42314203941033102</v>
+      </c>
+      <c r="U9">
+        <v>0.60737828429594898</v>
+      </c>
+      <c r="V9">
+        <v>0.46942056422570699</v>
+      </c>
+      <c r="W9">
+        <v>0.526675642597903</v>
+      </c>
+      <c r="X9">
+        <v>0.56940304293114397</v>
+      </c>
+      <c r="Y9">
+        <v>0.58197482179381599</v>
+      </c>
+      <c r="Z9">
+        <v>0.34560194679664702</v>
+      </c>
+      <c r="AA9">
+        <v>0.51731468936452596</v>
+      </c>
+      <c r="AB9">
+        <v>0.45352431663806098</v>
+      </c>
+      <c r="AC9">
+        <v>0.45352431663806098</v>
+      </c>
+      <c r="AD9">
+        <v>0.55121622902644796</v>
+      </c>
+      <c r="AE9">
+        <v>0.51505223034348502</v>
+      </c>
+      <c r="AF9">
+        <v>0.441168069117165</v>
+      </c>
+      <c r="AG9">
+        <v>0.37078840599331597</v>
+      </c>
+      <c r="AH9">
+        <v>0.43756622706924903</v>
+      </c>
+      <c r="AI9">
+        <v>0.345604789931306</v>
+      </c>
+      <c r="AJ9">
+        <v>0.54585835942058603</v>
+      </c>
+      <c r="AK9">
+        <v>0.617864079267891</v>
+      </c>
+      <c r="AL9">
+        <v>0.48546194355719702</v>
+      </c>
+      <c r="AM9">
+        <v>0.33414416075898901</v>
+      </c>
+      <c r="AN9">
+        <v>0.43614333310571002</v>
+      </c>
+      <c r="AO9">
+        <v>0.55828305348113205</v>
+      </c>
+      <c r="AP9">
+        <v>0.35189059347065899</v>
+      </c>
+      <c r="AQ9">
+        <v>0.44508105691204197</v>
+      </c>
+      <c r="AR9">
+        <v>0.47310023434586401</v>
+      </c>
+      <c r="AS9">
+        <v>0.57649183296045103</v>
+      </c>
+      <c r="AT9">
+        <v>0.63697549363614003</v>
+      </c>
+      <c r="AU9">
+        <v>0.37118369087814002</v>
+      </c>
+      <c r="AV9">
+        <v>0.34646493325787497</v>
+      </c>
+      <c r="AW9">
+        <v>0.52970826452779696</v>
+      </c>
+      <c r="AX9">
+        <v>0.45189911602053801</v>
+      </c>
+      <c r="AY9">
+        <v>0.31391141117026899</v>
+      </c>
+      <c r="AZ9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45879801995265579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.50095715727185297</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.60444673362520296</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.53332010481283099</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.42582548970697298</v>
+      </c>
+      <c r="F10">
+        <v>0.36112600534405798</v>
+      </c>
+      <c r="G10">
+        <v>0.37960685943974398</v>
+      </c>
+      <c r="H10">
+        <v>0.35438886471040898</v>
+      </c>
+      <c r="I10">
+        <v>0.33306538212806502</v>
+      </c>
+      <c r="J10">
+        <v>0.38442582607919101</v>
+      </c>
+      <c r="K10">
+        <v>0.43930878804939499</v>
+      </c>
+      <c r="L10">
+        <v>0.33493808487502502</v>
+      </c>
+      <c r="M10">
+        <v>0.48012781506036301</v>
+      </c>
+      <c r="N10">
+        <v>0.47401250054441901</v>
+      </c>
+      <c r="O10">
+        <v>0.37661696350882801</v>
+      </c>
+      <c r="P10">
+        <v>0.413737407019099</v>
+      </c>
+      <c r="Q10">
+        <v>0.33621015340729798</v>
+      </c>
+      <c r="R10">
+        <v>0.62369465888770204</v>
+      </c>
+      <c r="S10">
+        <v>0.39423605003467199</v>
+      </c>
+      <c r="T10">
+        <v>0.42411706626330298</v>
+      </c>
+      <c r="U10">
+        <v>0.32405245064691501</v>
+      </c>
+      <c r="V10">
+        <v>0.42258308037631198</v>
+      </c>
+      <c r="W10">
+        <v>0.61744047077380404</v>
+      </c>
+      <c r="X10">
+        <v>0.456170538757602</v>
+      </c>
+      <c r="Y10">
+        <v>0.54638828186784305</v>
+      </c>
+      <c r="Z10">
+        <v>0.35106646986193402</v>
+      </c>
+      <c r="AA10">
+        <v>0.53899030193558894</v>
+      </c>
+      <c r="AB10">
+        <v>0.48989717412487499</v>
+      </c>
+      <c r="AC10">
+        <v>0.48989717412487499</v>
+      </c>
+      <c r="AD10">
+        <v>0.50641552645355303</v>
+      </c>
+      <c r="AE10">
+        <v>0.48696326650009703</v>
+      </c>
+      <c r="AF10">
+        <v>0.41987824443500099</v>
+      </c>
+      <c r="AG10">
+        <v>0.403645478413931</v>
+      </c>
+      <c r="AH10">
+        <v>0.29107699534774401</v>
+      </c>
+      <c r="AI10">
+        <v>0.38821591740043998</v>
+      </c>
+      <c r="AJ10">
+        <v>0.50543973388405705</v>
+      </c>
+      <c r="AK10">
+        <v>0.53629370418202904</v>
+      </c>
+      <c r="AL10">
+        <v>0.48863813547275398</v>
+      </c>
+      <c r="AM10">
+        <v>0.45996266604282199</v>
+      </c>
+      <c r="AN10">
+        <v>0.25264966188287102</v>
+      </c>
+      <c r="AO10">
+        <v>0.51300446437542802</v>
+      </c>
+      <c r="AP10">
+        <v>0.35846091068827801</v>
+      </c>
+      <c r="AQ10">
+        <v>0.49883161664800402</v>
+      </c>
+      <c r="AR10">
+        <v>0.47621530729801398</v>
+      </c>
+      <c r="AS10">
+        <v>0.65354194640622998</v>
+      </c>
+      <c r="AT10">
+        <v>0.61919281816486405</v>
+      </c>
+      <c r="AU10">
+        <v>0.380486884792202</v>
+      </c>
+      <c r="AV10">
+        <v>0.34978409514908099</v>
+      </c>
+      <c r="AW10">
+        <v>0.47112717237938301</v>
+      </c>
+      <c r="AX10">
+        <v>0.51149185607566405</v>
+      </c>
+      <c r="AY10">
+        <v>0.325817367920328</v>
+      </c>
+      <c r="AZ10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44615563246301915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f t="shared" ref="E11:M11" si="1">INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
+        <v>v2.1-custom4</v>
+      </c>
+      <c r="F11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>v2.1-custom4</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>v2.1-md</v>
+      </c>
+      <c r="L11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>v2.1-md</v>
+      </c>
+      <c r="M11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="N11" s="11" t="str">
+        <f t="shared" ref="N11" si="2">INDEX($A4:$A10, MATCH(MAX(N4:N10), N4:N10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="O11" s="11" t="str">
+        <f t="shared" ref="O11" si="3">INDEX($A4:$A10, MATCH(MAX(O4:O10), O4:O10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="P11" s="11" t="str">
+        <f t="shared" ref="P11" si="4">INDEX($A4:$A10, MATCH(MAX(P4:P10), P4:P10, 0))</f>
+        <v>v2.1-html</v>
+      </c>
+      <c r="Q11" s="11" t="str">
+        <f t="shared" ref="Q11" si="5">INDEX($A4:$A10, MATCH(MAX(Q4:Q10), Q4:Q10, 0))</f>
+        <v>v2.1-json</v>
+      </c>
+      <c r="R11" s="11" t="str">
+        <f t="shared" ref="R11" si="6">INDEX($A4:$A10, MATCH(MAX(R4:R10), R4:R10, 0))</f>
+        <v>v2.1-html</v>
+      </c>
+      <c r="S11" s="11" t="str">
+        <f t="shared" ref="S11" si="7">INDEX($A4:$A10, MATCH(MAX(S4:S10), S4:S10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="T11" s="11" t="str">
+        <f t="shared" ref="T11" si="8">INDEX($A4:$A10, MATCH(MAX(T4:T10), T4:T10, 0))</f>
+        <v>v2.1-json</v>
+      </c>
+      <c r="U11" s="11" t="str">
+        <f t="shared" ref="U11" si="9">INDEX($A4:$A10, MATCH(MAX(U4:U10), U4:U10, 0))</f>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="V11" s="11" t="str">
+        <f t="shared" ref="V11" si="10">INDEX($A4:$A10, MATCH(MAX(V4:V10), V4:V10, 0))</f>
+        <v>v2.1-json</v>
+      </c>
+      <c r="W11" s="11" t="str">
+        <f t="shared" ref="W11" si="11">INDEX($A4:$A10, MATCH(MAX(W4:W10), W4:W10, 0))</f>
+        <v>v2.1-custom4</v>
+      </c>
+      <c r="X11" s="11" t="str">
+        <f t="shared" ref="X11" si="12">INDEX($A4:$A10, MATCH(MAX(X4:X10), X4:X10, 0))</f>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="Y11" s="11" t="str">
+        <f t="shared" ref="Y11" si="13">INDEX($A4:$A10, MATCH(MAX(Y4:Y10), Y4:Y10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="Z11" s="11" t="str">
+        <f t="shared" ref="Z11" si="14">INDEX($A4:$A10, MATCH(MAX(Z4:Z10), Z4:Z10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AA11" s="11" t="str">
+        <f t="shared" ref="AA11" si="15">INDEX($A4:$A10, MATCH(MAX(AA4:AA10), AA4:AA10, 0))</f>
+        <v>v2.1-json</v>
+      </c>
+      <c r="AB11" s="11" t="str">
+        <f t="shared" ref="AB11" si="16">INDEX($A4:$A10, MATCH(MAX(AB4:AB10), AB4:AB10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="AC11" s="11" t="str">
+        <f t="shared" ref="AC11" si="17">INDEX($A4:$A10, MATCH(MAX(AC4:AC10), AC4:AC10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="AD11" s="11" t="str">
+        <f t="shared" ref="AD11" si="18">INDEX($A4:$A10, MATCH(MAX(AD4:AD10), AD4:AD10, 0))</f>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="AE11" s="11" t="str">
+        <f t="shared" ref="AE11" si="19">INDEX($A4:$A10, MATCH(MAX(AE4:AE10), AE4:AE10, 0))</f>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AF11" s="11" t="str">
+        <f t="shared" ref="AF11" si="20">INDEX($A4:$A10, MATCH(MAX(AF4:AF10), AF4:AF10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AG11" s="11" t="str">
+        <f t="shared" ref="AG11" si="21">INDEX($A4:$A10, MATCH(MAX(AG4:AG10), AG4:AG10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AH11" s="11" t="str">
+        <f t="shared" ref="AH11" si="22">INDEX($A4:$A10, MATCH(MAX(AH4:AH10), AH4:AH10, 0))</f>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AI11" s="11" t="str">
+        <f t="shared" ref="AI11" si="23">INDEX($A4:$A10, MATCH(MAX(AI4:AI10), AI4:AI10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AJ11" s="11" t="str">
+        <f t="shared" ref="AJ11" si="24">INDEX($A4:$A10, MATCH(MAX(AJ4:AJ10), AJ4:AJ10, 0))</f>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AK11" s="11" t="str">
+        <f t="shared" ref="AK11" si="25">INDEX($A4:$A10, MATCH(MAX(AK4:AK10), AK4:AK10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="AL11" s="11" t="str">
+        <f t="shared" ref="AL11" si="26">INDEX($A4:$A10, MATCH(MAX(AL4:AL10), AL4:AL10, 0))</f>
+        <v>v2.1-md</v>
+      </c>
+      <c r="AM11" s="11" t="str">
+        <f t="shared" ref="AM11" si="27">INDEX($A4:$A10, MATCH(MAX(AM4:AM10), AM4:AM10, 0))</f>
+        <v>v2.1-custom4</v>
+      </c>
+      <c r="AN11" s="11" t="str">
+        <f t="shared" ref="AN11" si="28">INDEX($A4:$A10, MATCH(MAX(AN4:AN10), AN4:AN10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="AO11" s="11" t="str">
+        <f t="shared" ref="AO11" si="29">INDEX($A4:$A10, MATCH(MAX(AO4:AO10), AO4:AO10, 0))</f>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="AP11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(AP4:AP10), AP4:AP10, 0))</f>
+        <v>v2.1-json</v>
+      </c>
+      <c r="AQ11" s="11" t="str">
+        <f t="shared" ref="AQ11" si="30">INDEX($A4:$A10, MATCH(MAX(AQ4:AQ10), AQ4:AQ10, 0))</f>
+        <v>v2.1-json</v>
+      </c>
+      <c r="AR11" s="11" t="str">
+        <f t="shared" ref="AR11" si="31">INDEX($A4:$A10, MATCH(MAX(AR4:AR10), AR4:AR10, 0))</f>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AS11" s="11" t="str">
+        <f t="shared" ref="AS11" si="32">INDEX($A4:$A10, MATCH(MAX(AS4:AS10), AS4:AS10, 0))</f>
+        <v>v2.1-custom4</v>
+      </c>
+      <c r="AT11" s="11" t="str">
+        <f t="shared" ref="AT11" si="33">INDEX($A4:$A10, MATCH(MAX(AT4:AT10), AT4:AT10, 0))</f>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="AU11" s="11" t="str">
+        <f t="shared" ref="AU11" si="34">INDEX($A4:$A10, MATCH(MAX(AU4:AU10), AU4:AU10, 0))</f>
+        <v>v2.1-custom4</v>
+      </c>
+      <c r="AV11" s="11" t="str">
+        <f t="shared" ref="AV11" si="35">INDEX($A4:$A10, MATCH(MAX(AV4:AV10), AV4:AV10, 0))</f>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AW11" s="11" t="str">
+        <f t="shared" ref="AW11" si="36">INDEX($A4:$A10, MATCH(MAX(AW4:AW10), AW4:AW10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AX11" s="11" t="str">
+        <f t="shared" ref="AX11" si="37">INDEX($A4:$A10, MATCH(MAX(AX4:AX10), AX4:AX10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AY11" s="11" t="str">
+        <f t="shared" ref="AY11" si="38">INDEX($A4:$A10, MATCH(MAX(AY4:AY10), AY4:AY10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AZ11" s="12" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(AZ4:AZ10), AZ4:AZ10, 0))</f>
+        <v>v2.1-json</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.39966185025450301</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.51205602316782906</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.40470783311619601</v>
+      </c>
+      <c r="E15">
+        <v>0.26508203503251099</v>
+      </c>
+      <c r="F15">
+        <v>0.202640624708402</v>
+      </c>
+      <c r="G15">
+        <v>0.24010555820061</v>
+      </c>
+      <c r="H15">
+        <v>0.133169478765333</v>
+      </c>
+      <c r="I15">
+        <v>0.15554333990309599</v>
+      </c>
+      <c r="J15">
+        <v>0.26765262769605103</v>
+      </c>
+      <c r="K15">
+        <v>0.32737918540424499</v>
+      </c>
+      <c r="L15">
+        <v>0.18509293283023801</v>
+      </c>
+      <c r="M15">
+        <v>0.52877967112050905</v>
+      </c>
+      <c r="N15">
+        <v>0.39768180140273102</v>
+      </c>
+      <c r="O15">
+        <v>0.23110828602139899</v>
+      </c>
+      <c r="P15">
+        <v>0.24790983785181001</v>
+      </c>
+      <c r="Q15">
+        <v>0.215227107268328</v>
+      </c>
+      <c r="R15">
+        <v>0.414274378525819</v>
+      </c>
+      <c r="S15">
+        <v>0.36688616900745102</v>
+      </c>
+      <c r="T15">
+        <v>0.258237148561476</v>
+      </c>
+      <c r="U15">
+        <v>0.27965437131884802</v>
+      </c>
+      <c r="V15">
+        <v>0.26089406522843001</v>
+      </c>
+      <c r="W15">
+        <v>0.46749354217095201</v>
+      </c>
+      <c r="X15">
+        <v>0.37597107572447003</v>
+      </c>
+      <c r="Y15">
+        <v>0.44576898844720703</v>
+      </c>
+      <c r="Z15">
+        <v>0.222502424726501</v>
+      </c>
+      <c r="AA15">
+        <v>0.35705068980841498</v>
+      </c>
+      <c r="AB15">
+        <v>0.31455627257935498</v>
+      </c>
+      <c r="AC15">
+        <v>0.214556272579355</v>
+      </c>
+      <c r="AD15">
+        <v>0.43577751081202498</v>
+      </c>
+      <c r="AE15">
+        <v>0.390788224121557</v>
+      </c>
+      <c r="AF15">
+        <v>0.26038887590072701</v>
+      </c>
+      <c r="AG15">
+        <v>0.22040907285662001</v>
+      </c>
+      <c r="AH15">
+        <v>0.170568744995898</v>
+      </c>
+      <c r="AI15">
+        <v>0.272906964911521</v>
+      </c>
+      <c r="AJ15">
+        <v>0.349381205813873</v>
+      </c>
+      <c r="AK15">
+        <v>0.33485618790111898</v>
+      </c>
+      <c r="AL15">
+        <v>0.30343731127275902</v>
+      </c>
+      <c r="AM15">
+        <v>0.20816725451576601</v>
+      </c>
+      <c r="AN15">
+        <v>0.287607557589242</v>
+      </c>
+      <c r="AO15">
+        <v>0.33432177267638202</v>
+      </c>
+      <c r="AP15">
+        <v>0.21482607955892999</v>
+      </c>
+      <c r="AQ15">
+        <v>0.31760949125296301</v>
+      </c>
+      <c r="AR15">
+        <v>0.292160960723719</v>
+      </c>
+      <c r="AS15">
+        <v>0.48213247390186598</v>
+      </c>
+      <c r="AT15">
+        <v>0.49802480731020499</v>
+      </c>
+      <c r="AU15">
+        <v>0.17845922998842301</v>
+      </c>
+      <c r="AV15">
+        <v>0.202595123267965</v>
+      </c>
+      <c r="AW15">
+        <v>0.44814243994335201</v>
+      </c>
+      <c r="AX15">
+        <v>0.32451795551210699</v>
+      </c>
+      <c r="AY15">
+        <v>0.18522900110572199</v>
+      </c>
+      <c r="AZ15" s="8">
+        <f>SUM(B15:AY15)/50</f>
+        <v>0.30807903674709619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.38746214562675702</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.46902277743379001</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.35100102924211402</v>
+      </c>
+      <c r="E16">
+        <v>0.220879558495573</v>
+      </c>
+      <c r="F16">
+        <v>0.16423436119151799</v>
+      </c>
+      <c r="G16">
+        <v>0.21874760753644401</v>
+      </c>
+      <c r="H16">
+        <v>0.18985786733969501</v>
+      </c>
+      <c r="I16">
+        <v>0.171569983633937</v>
+      </c>
+      <c r="J16">
+        <v>0.27977636501971198</v>
+      </c>
+      <c r="K16">
+        <v>0.29075959563343601</v>
+      </c>
+      <c r="L16">
+        <v>0.26576034637722701</v>
+      </c>
+      <c r="M16">
+        <v>0.33100906664365698</v>
+      </c>
+      <c r="N16">
+        <v>0.38803700193163998</v>
+      </c>
+      <c r="O16">
+        <v>0.20388206830688499</v>
+      </c>
+      <c r="P16">
+        <v>0.35355233557189097</v>
+      </c>
+      <c r="Q16">
+        <v>0.185616152080502</v>
+      </c>
+      <c r="R16">
+        <v>0.427885337751232</v>
+      </c>
+      <c r="S16">
+        <v>0.30375338225034298</v>
+      </c>
+      <c r="T16">
+        <v>0.28925726712782002</v>
+      </c>
+      <c r="U16">
+        <v>0.29647146374125199</v>
+      </c>
+      <c r="V16">
+        <v>0.29331267282977003</v>
+      </c>
+      <c r="W16">
+        <v>0.385675242837832</v>
+      </c>
+      <c r="X16">
+        <v>0.393106220933229</v>
+      </c>
+      <c r="Y16">
+        <v>0.44713862945400401</v>
+      </c>
+      <c r="Z16">
+        <v>0.192327160264507</v>
+      </c>
+      <c r="AA16">
+        <v>0.382913316809955</v>
+      </c>
+      <c r="AB16">
+        <v>0.31069054860876399</v>
+      </c>
+      <c r="AC16">
+        <v>0.31069054860876399</v>
+      </c>
+      <c r="AD16">
+        <v>0.387184087190729</v>
+      </c>
+      <c r="AE16">
+        <v>0.35920517480366299</v>
+      </c>
+      <c r="AF16">
+        <v>0.25711431712673899</v>
+      </c>
+      <c r="AG16">
+        <v>0.21277258603955601</v>
+      </c>
+      <c r="AH16">
+        <v>0.26075969662117399</v>
+      </c>
+      <c r="AI16">
+        <v>0.208266409123574</v>
+      </c>
+      <c r="AJ16">
+        <v>0.33072799952542298</v>
+      </c>
+      <c r="AK16">
+        <v>0.31172224856435299</v>
+      </c>
+      <c r="AL16">
+        <v>0.33149498820458201</v>
+      </c>
+      <c r="AM16">
+        <v>0.21608259673533001</v>
+      </c>
+      <c r="AN16">
+        <v>0.276257481492033</v>
+      </c>
+      <c r="AO16">
+        <v>0.403153978566272</v>
+      </c>
+      <c r="AP16">
+        <v>0.213601586651395</v>
+      </c>
+      <c r="AQ16">
+        <v>0.227189271463244</v>
+      </c>
+      <c r="AR16">
+        <v>0.30135538529218298</v>
+      </c>
+      <c r="AS16">
+        <v>0.48907732562009298</v>
+      </c>
+      <c r="AT16">
+        <v>0.509307285076256</v>
+      </c>
+      <c r="AU16">
+        <v>0.16848027959326101</v>
+      </c>
+      <c r="AV16">
+        <v>0.17864572599414599</v>
+      </c>
+      <c r="AW16">
+        <v>0.404551454378619</v>
+      </c>
+      <c r="AX16">
+        <v>0.247628568020032</v>
+      </c>
+      <c r="AY16">
+        <v>0.17774189656584199</v>
+      </c>
+      <c r="AZ16" s="8">
+        <f t="shared" ref="AZ16:AZ21" si="39">SUM(B16:AY16)/50</f>
+        <v>0.29953420791861496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.43330396859808601</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.46125387313126698</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.38210459008669601</v>
+      </c>
+      <c r="E17">
+        <v>0.202709847599922</v>
+      </c>
+      <c r="F17">
+        <v>0.20033962050451701</v>
+      </c>
+      <c r="G17">
+        <v>0.217167158954162</v>
+      </c>
+      <c r="H17">
+        <v>0.17318974665456</v>
+      </c>
+      <c r="I17">
+        <v>0.16683477784419201</v>
+      </c>
+      <c r="J17">
+        <v>0.213271384151895</v>
+      </c>
+      <c r="K17">
+        <v>0.28846620896729602</v>
+      </c>
+      <c r="L17">
+        <v>0.24688047890100301</v>
+      </c>
+      <c r="M17">
+        <v>0.29918845055474302</v>
+      </c>
+      <c r="N17">
+        <v>0.380961042404804</v>
+      </c>
+      <c r="O17">
+        <v>0.19797154418250301</v>
+      </c>
+      <c r="P17">
+        <v>0.32891981944280901</v>
+      </c>
+      <c r="Q17">
+        <v>0.242008740840463</v>
+      </c>
+      <c r="R17">
+        <v>0.34656960434670597</v>
+      </c>
+      <c r="S17">
+        <v>0.27961919893650899</v>
+      </c>
+      <c r="T17">
+        <v>0.32582489617161298</v>
+      </c>
+      <c r="U17">
+        <v>0.429034289903855</v>
+      </c>
+      <c r="V17">
+        <v>0.29963244250175602</v>
+      </c>
+      <c r="W17">
+        <v>0.416168463129578</v>
+      </c>
+      <c r="X17">
+        <v>0.35967303771477999</v>
+      </c>
+      <c r="Y17">
+        <v>0.41285063596496901</v>
+      </c>
+      <c r="Z17">
+        <v>0.212804477942512</v>
+      </c>
+      <c r="AA17">
+        <v>0.38867162349319501</v>
+      </c>
+      <c r="AB17">
+        <v>0.26047824562675997</v>
+      </c>
+      <c r="AC17">
+        <v>0.26047824562675997</v>
+      </c>
+      <c r="AD17">
+        <v>0.37811918833006503</v>
+      </c>
+      <c r="AE17">
+        <v>0.396840527845362</v>
+      </c>
+      <c r="AF17">
+        <v>0.22443048033673799</v>
+      </c>
+      <c r="AG17">
+        <v>0.20875105008570499</v>
+      </c>
+      <c r="AH17">
+        <v>0.25512297116021099</v>
+      </c>
+      <c r="AI17">
+        <v>0.229514402375739</v>
+      </c>
+      <c r="AJ17">
+        <v>0.333203167618145</v>
+      </c>
+      <c r="AK17">
+        <v>0.353748214216765</v>
+      </c>
+      <c r="AL17">
+        <v>0.35312782044961999</v>
+      </c>
+      <c r="AM17">
+        <v>0.20402352337188201</v>
+      </c>
+      <c r="AN17">
+        <v>0.243077708761442</v>
+      </c>
+      <c r="AO17">
+        <v>0.36309871307743502</v>
+      </c>
+      <c r="AP17">
+        <v>0.25429578852520901</v>
+      </c>
+      <c r="AQ17">
+        <v>0.35638078055629702</v>
+      </c>
+      <c r="AR17">
+        <v>0.288504654776436</v>
+      </c>
+      <c r="AS17">
+        <v>0.414508674947762</v>
+      </c>
+      <c r="AT17">
+        <v>0.52322019656469898</v>
+      </c>
+      <c r="AU17">
+        <v>0.20022784603357899</v>
+      </c>
+      <c r="AV17">
+        <v>0.21789720900722701</v>
+      </c>
+      <c r="AW17">
+        <v>0.408618861906268</v>
+      </c>
+      <c r="AX17">
+        <v>0.30845958097995002</v>
+      </c>
+      <c r="AY17">
+        <v>0.174084822165539</v>
+      </c>
+      <c r="AZ17" s="8">
+        <f t="shared" si="39"/>
+        <v>0.30231265194539969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.34275334007476799</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.42862508001942801</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.38514217066852202</v>
+      </c>
+      <c r="E18">
+        <v>0.2228144059054</v>
+      </c>
+      <c r="F18">
+        <v>0.18381068301994</v>
+      </c>
+      <c r="G18">
+        <v>0.22352531211635501</v>
+      </c>
+      <c r="H18">
+        <v>0.191640278308461</v>
+      </c>
+      <c r="I18">
+        <v>0.18619968071733101</v>
+      </c>
+      <c r="J18">
+        <v>0.230930780806194</v>
+      </c>
+      <c r="K18">
+        <v>0.27705947318904101</v>
+      </c>
+      <c r="L18">
+        <v>0.22928054675858101</v>
+      </c>
+      <c r="M18">
+        <v>0.28387120534203603</v>
+      </c>
+      <c r="N18">
+        <v>0.36769188665740299</v>
+      </c>
+      <c r="O18">
+        <v>0.20483010711104699</v>
+      </c>
+      <c r="P18">
+        <v>0.36085343016351501</v>
+      </c>
+      <c r="Q18">
+        <v>0.2204377099067</v>
+      </c>
+      <c r="R18">
+        <v>0.43783843209673301</v>
+      </c>
+      <c r="S18">
+        <v>0.31250384975661999</v>
+      </c>
+      <c r="T18">
+        <v>0.29124832443931797</v>
+      </c>
+      <c r="U18">
+        <v>0.41504159544548502</v>
+      </c>
+      <c r="V18">
+        <v>0.30561934592199103</v>
+      </c>
+      <c r="W18">
+        <v>0.44027042077078299</v>
+      </c>
+      <c r="X18">
+        <v>0.358796711126463</v>
+      </c>
+      <c r="Y18">
+        <v>0.37935922239935199</v>
+      </c>
+      <c r="Z18">
+        <v>0.19469612847471901</v>
+      </c>
+      <c r="AA18">
+        <v>0.33541074272620103</v>
+      </c>
+      <c r="AB18">
+        <v>0.26436213129761499</v>
+      </c>
+      <c r="AC18">
+        <v>0.26436213129761499</v>
+      </c>
+      <c r="AD18">
+        <v>0.41242540960696999</v>
+      </c>
+      <c r="AE18">
+        <v>0.42446325870058998</v>
+      </c>
+      <c r="AF18">
+        <v>0.25488400488400398</v>
+      </c>
+      <c r="AG18">
+        <v>0.21114674377980699</v>
+      </c>
+      <c r="AH18">
+        <v>0.27952637684384701</v>
+      </c>
+      <c r="AI18">
+        <v>0.2169798745472</v>
+      </c>
+      <c r="AJ18">
+        <v>0.37884296790570299</v>
+      </c>
+      <c r="AK18">
+        <v>0.36222509930643898</v>
+      </c>
+      <c r="AL18">
+        <v>0.32490604095018299</v>
+      </c>
+      <c r="AM18">
+        <v>0.183280030967234</v>
+      </c>
+      <c r="AN18">
+        <v>0.27016598681341197</v>
+      </c>
+      <c r="AO18">
+        <v>0.41817448014206399</v>
+      </c>
+      <c r="AP18">
+        <v>0.21785956886393501</v>
+      </c>
+      <c r="AQ18">
+        <v>0.24459890087854699</v>
+      </c>
+      <c r="AR18">
+        <v>0.31339262026132098</v>
+      </c>
+      <c r="AS18">
+        <v>0.406891367869818</v>
+      </c>
+      <c r="AT18">
+        <v>0.50134741342091604</v>
+      </c>
+      <c r="AU18">
+        <v>0.173907383895337</v>
+      </c>
+      <c r="AV18">
+        <v>0.223064627319188</v>
+      </c>
+      <c r="AW18">
+        <v>0.38983354304376899</v>
+      </c>
+      <c r="AX18">
+        <v>0.28863272448877098</v>
+      </c>
+      <c r="AY18">
+        <v>0.193208609162804</v>
+      </c>
+      <c r="AZ18" s="8">
+        <f t="shared" si="39"/>
+        <v>0.3005746432033895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.435790701600896</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.46039219856219499</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.38910270385090501</v>
+      </c>
+      <c r="E19">
+        <v>0.23508075001374101</v>
+      </c>
+      <c r="F19">
+        <v>0.20274765351677099</v>
+      </c>
+      <c r="G19">
+        <v>0.20902122845668999</v>
+      </c>
+      <c r="H19">
+        <v>0.17088284194404699</v>
+      </c>
+      <c r="I19">
+        <v>0.16520778006109901</v>
+      </c>
+      <c r="J19">
+        <v>0.25516105964090002</v>
+      </c>
+      <c r="K19">
+        <v>0.28524187354457298</v>
+      </c>
+      <c r="L19">
+        <v>0.216402641022123</v>
+      </c>
+      <c r="M19">
+        <v>0.232661930302723</v>
+      </c>
+      <c r="N19">
+        <v>0.36269196327315301</v>
+      </c>
+      <c r="O19">
+        <v>0.22637065157660699</v>
+      </c>
+      <c r="P19">
+        <v>0.32208252075476002</v>
+      </c>
+      <c r="Q19">
+        <v>0.19392910888644599</v>
+      </c>
+      <c r="R19">
+        <v>0.42878649128649099</v>
+      </c>
+      <c r="S19">
+        <v>0.29248417075636002</v>
+      </c>
+      <c r="T19">
+        <v>0.29619897754917701</v>
+      </c>
+      <c r="U19">
+        <v>0.39900105243968298</v>
+      </c>
+      <c r="V19">
+        <v>0.32589672860121399</v>
+      </c>
+      <c r="W19">
+        <v>0.48233029617067003</v>
+      </c>
+      <c r="X19">
+        <v>0.37390605964120999</v>
+      </c>
+      <c r="Y19">
+        <v>0.45464514866864097</v>
+      </c>
+      <c r="Z19">
+        <v>0.20406614192731501</v>
+      </c>
+      <c r="AA19">
+        <v>0.35344570702870698</v>
+      </c>
+      <c r="AB19">
+        <v>0.33781216841141898</v>
+      </c>
+      <c r="AC19">
+        <v>0.43781216841141901</v>
+      </c>
+      <c r="AD19">
+        <v>0.417103813162646</v>
+      </c>
+      <c r="AE19">
+        <v>0.354123609677789</v>
+      </c>
+      <c r="AF19">
+        <v>0.24843499413391801</v>
+      </c>
+      <c r="AG19">
+        <v>0.220244012303113</v>
+      </c>
+      <c r="AH19">
+        <v>0.25810018808968399</v>
+      </c>
+      <c r="AI19">
+        <v>0.20610058928642</v>
+      </c>
+      <c r="AJ19">
+        <v>0.376050161229246</v>
+      </c>
+      <c r="AK19">
+        <v>0.37837948585644299</v>
+      </c>
+      <c r="AL19">
+        <v>0.33512832960532701</v>
+      </c>
+      <c r="AM19">
+        <v>0.20289752475375999</v>
+      </c>
+      <c r="AN19">
+        <v>0.277093525118842</v>
+      </c>
+      <c r="AO19">
+        <v>0.373629017165994</v>
+      </c>
+      <c r="AP19">
+        <v>0.22091469280178899</v>
+      </c>
+      <c r="AQ19">
+        <v>0.27786616987103602</v>
+      </c>
+      <c r="AR19">
+        <v>0.29177350523463702</v>
+      </c>
+      <c r="AS19">
+        <v>0.37382987382987298</v>
+      </c>
+      <c r="AT19">
+        <v>0.426784878878125</v>
+      </c>
+      <c r="AU19">
+        <v>0.180760741405357</v>
+      </c>
+      <c r="AV19">
+        <v>0.179881857729837</v>
+      </c>
+      <c r="AW19">
+        <v>0.40019802562912898</v>
+      </c>
+      <c r="AX19">
+        <v>0.27316127614471603</v>
+      </c>
+      <c r="AY19">
+        <v>0.16471405867459901</v>
+      </c>
+      <c r="AZ19" s="8">
+        <f t="shared" si="39"/>
+        <v>0.3037264609696444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.36313417759496103</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.45311196185177999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.367529746455176</v>
+      </c>
+      <c r="E20">
+        <v>0.199278244825804</v>
+      </c>
+      <c r="F20">
+        <v>0.217923602870807</v>
+      </c>
+      <c r="G20">
+        <v>0.20964683464683401</v>
+      </c>
+      <c r="H20">
+        <v>0.181204439943359</v>
+      </c>
+      <c r="I20">
+        <v>0.17236410744500799</v>
+      </c>
+      <c r="J20">
+        <v>0.25737245295758199</v>
+      </c>
+      <c r="K20">
+        <v>0.26288348097326802</v>
+      </c>
+      <c r="L20">
+        <v>0.228735572596409</v>
+      </c>
+      <c r="M20">
+        <v>0.29335015952770899</v>
+      </c>
+      <c r="N20">
+        <v>0.333386859360363</v>
+      </c>
+      <c r="O20">
+        <v>0.22360100793990301</v>
+      </c>
+      <c r="P20">
+        <v>0.34934574307005101</v>
+      </c>
+      <c r="Q20">
+        <v>0.21186397278109001</v>
+      </c>
+      <c r="R20">
+        <v>0.428236455130725</v>
+      </c>
+      <c r="S20">
+        <v>0.33810136425792398</v>
+      </c>
+      <c r="T20">
+        <v>0.29266867804859797</v>
+      </c>
+      <c r="U20">
+        <v>0.451370895998983</v>
+      </c>
+      <c r="V20">
+        <v>0.32355871853870799</v>
+      </c>
+      <c r="W20">
+        <v>0.39402518426616501</v>
+      </c>
+      <c r="X20">
+        <v>0.38819881298665199</v>
+      </c>
+      <c r="Y20">
+        <v>0.44358217796818</v>
+      </c>
+      <c r="Z20">
+        <v>0.18053886933042501</v>
+      </c>
+      <c r="AA20">
+        <v>0.334493182522275</v>
+      </c>
+      <c r="AB20">
+        <v>0.31026186462597699</v>
+      </c>
+      <c r="AC20">
+        <v>0.31026186462597699</v>
+      </c>
+      <c r="AD20">
+        <v>0.421204537554902</v>
+      </c>
+      <c r="AE20">
+        <v>0.36991978509227802</v>
+      </c>
+      <c r="AF20">
+        <v>0.23485166360610499</v>
+      </c>
+      <c r="AG20">
+        <v>0.192863023518376</v>
+      </c>
+      <c r="AH20">
+        <v>0.26316860736950098</v>
+      </c>
+      <c r="AI20">
+        <v>0.19370163961042799</v>
+      </c>
+      <c r="AJ20">
+        <v>0.36583258177009598</v>
+      </c>
+      <c r="AK20">
+        <v>0.39254682665086499</v>
+      </c>
+      <c r="AL20">
+        <v>0.33244228545215598</v>
+      </c>
+      <c r="AM20">
+        <v>0.16227585525020699</v>
+      </c>
+      <c r="AN20">
+        <v>0.26873522296566199</v>
+      </c>
+      <c r="AO20">
+        <v>0.44198855274589899</v>
+      </c>
+      <c r="AP20">
+        <v>0.23620079770017499</v>
+      </c>
+      <c r="AQ20">
+        <v>0.25804774593506902</v>
+      </c>
+      <c r="AR20">
+        <v>0.29408238592407498</v>
+      </c>
+      <c r="AS20">
+        <v>0.42612844477950901</v>
+      </c>
+      <c r="AT20">
+        <v>0.51109089106466898</v>
+      </c>
+      <c r="AU20">
+        <v>0.231726737289252</v>
+      </c>
+      <c r="AV20">
+        <v>0.199373592186254</v>
+      </c>
+      <c r="AW20">
+        <v>0.388159550208382</v>
+      </c>
+      <c r="AX20">
+        <v>0.25781673915786602</v>
+      </c>
+      <c r="AY20">
+        <v>0.16071656073653201</v>
+      </c>
+      <c r="AZ20" s="8">
+        <f t="shared" si="39"/>
+        <v>0.30245808919417894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.32130347129426801</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.43448364666494899</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.36174279239403201</v>
+      </c>
+      <c r="E21">
+        <v>0.29788575917302701</v>
+      </c>
+      <c r="F21">
+        <v>0.20011027654298</v>
+      </c>
+      <c r="G21">
+        <v>0.20086539897427</v>
+      </c>
+      <c r="H21">
+        <v>0.18784307162357</v>
+      </c>
+      <c r="I21">
+        <v>0.175098102145338</v>
+      </c>
+      <c r="J21">
+        <v>0.23880530886430101</v>
+      </c>
+      <c r="K21">
+        <v>0.26295760333341001</v>
+      </c>
+      <c r="L21">
+        <v>0.23086064727963601</v>
+      </c>
+      <c r="M21">
+        <v>0.272633243120397</v>
+      </c>
+      <c r="N21">
+        <v>0.297442752087474</v>
+      </c>
+      <c r="O21">
+        <v>0.218308679753659</v>
+      </c>
+      <c r="P21">
+        <v>0.27433412250814898</v>
+      </c>
+      <c r="Q21">
+        <v>0.192298435590461</v>
+      </c>
+      <c r="R21">
+        <v>0.42179335946708102</v>
+      </c>
+      <c r="S21">
+        <v>0.26441420198224702</v>
+      </c>
+      <c r="T21">
+        <v>0.28344163409709899</v>
+      </c>
+      <c r="U21">
+        <v>0.23714057480603801</v>
+      </c>
+      <c r="V21">
+        <v>0.29617272462031102</v>
+      </c>
+      <c r="W21">
+        <v>0.48206301539634799</v>
+      </c>
+      <c r="X21">
+        <v>0.32406138358903203</v>
+      </c>
+      <c r="Y21">
+        <v>0.414582738681055</v>
+      </c>
+      <c r="Z21">
+        <v>0.19088920873259699</v>
+      </c>
+      <c r="AA21">
+        <v>0.371443013082707</v>
+      </c>
+      <c r="AB21">
+        <v>0.321388585228158</v>
+      </c>
+      <c r="AC21">
+        <v>0.321388585228158</v>
+      </c>
+      <c r="AD21">
+        <v>0.41253838655765601</v>
+      </c>
+      <c r="AE21">
+        <v>0.360828156749262</v>
+      </c>
+      <c r="AF21">
+        <v>0.223211998268671</v>
+      </c>
+      <c r="AG21">
+        <v>0.21912269537447299</v>
+      </c>
+      <c r="AH21">
+        <v>0.18909404082651399</v>
+      </c>
+      <c r="AI21">
+        <v>0.209766253740342</v>
+      </c>
+      <c r="AJ21">
+        <v>0.37095601601162398</v>
+      </c>
+      <c r="AK21">
+        <v>0.32490694357140398</v>
+      </c>
+      <c r="AL21">
+        <v>0.33687180731022098</v>
+      </c>
+      <c r="AM21">
+        <v>0.239357464530431</v>
+      </c>
+      <c r="AN21">
+        <v>0.156652390717375</v>
+      </c>
+      <c r="AO21">
+        <v>0.376528806351762</v>
+      </c>
+      <c r="AP21">
+        <v>0.24500016822432399</v>
+      </c>
+      <c r="AQ21">
+        <v>0.28939044935755098</v>
+      </c>
+      <c r="AR21">
+        <v>0.304185420259933</v>
+      </c>
+      <c r="AS21">
+        <v>0.505276160946875</v>
+      </c>
+      <c r="AT21">
+        <v>0.51219758452280695</v>
+      </c>
+      <c r="AU21">
+        <v>0.203678847417256</v>
+      </c>
+      <c r="AV21">
+        <v>0.19578353894560999</v>
+      </c>
+      <c r="AW21">
+        <v>0.33319647619137699</v>
+      </c>
+      <c r="AX21">
+        <v>0.31036943279044099</v>
+      </c>
+      <c r="AY21">
+        <v>0.16873783366786099</v>
+      </c>
+      <c r="AZ21" s="8">
+        <f t="shared" si="39"/>
+        <v>0.29166806417189051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11" t="str">
+        <f>INDEX($A15:$A21, MATCH(MAX(B15:B21), B15:B21, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="C22" s="11" t="str">
+        <f>INDEX($A15:$A21, MATCH(MAX(C15:C21), C15:C21, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="D22" s="11" t="str">
+        <f>INDEX($A15:$A21, MATCH(MAX(D15:D21), D15:D21, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f t="shared" ref="E22:AY22" si="40">INDEX($A15:$A21, MATCH(MAX(E15:E21), E15:E21, 0))</f>
+        <v>v2.1-custom4</v>
+      </c>
+      <c r="F22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="I22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="J22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-md</v>
+      </c>
+      <c r="K22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="L22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-md</v>
+      </c>
+      <c r="M22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="N22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="O22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="P22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="Q22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-json</v>
+      </c>
+      <c r="R22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="S22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="T22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-json</v>
+      </c>
+      <c r="U22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="V22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="W22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="X22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-md</v>
+      </c>
+      <c r="Y22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="Z22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AA22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-json</v>
+      </c>
+      <c r="AB22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="AC22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="AD22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AE22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AF22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AG22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AH22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AI22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AJ22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AK22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="AL22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-json</v>
+      </c>
+      <c r="AM22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom4</v>
+      </c>
+      <c r="AN22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AO22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="AP22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-json</v>
+      </c>
+      <c r="AQ22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-json</v>
+      </c>
+      <c r="AR22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AS22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom4</v>
+      </c>
+      <c r="AT22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-json</v>
+      </c>
+      <c r="AU22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="AV22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AW22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AX22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="AY22" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>v2.1-html</v>
+      </c>
+      <c r="AZ22" s="12" t="str">
+        <f>INDEX($A15:$A21, MATCH(MAX(AZ15:AZ21), AZ15:AZ21, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="B4:AY10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:AY21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3891B14-8636-44EC-9D3D-F5390233C3F1}">
+  <dimension ref="A2:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.55282721950575597</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.62246793579406001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.45629657538639301</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8">
+        <f>SUM(B4:D4)/3</f>
+        <v>0.54386391022873626</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.43751031468843898</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.47003194450603097</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.33526660156842503</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <f>SUM(K4:M4)/3</f>
+        <v>0.41426962025429831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.56978527923281097</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.449792141075194</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.42881839385567599</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8">
+        <f t="shared" ref="G5:G11" si="0">SUM(B5:D5)/3</f>
+        <v>0.48279860472122699</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.45413430593265502</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.293922915895311</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.28461186368532398</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" ref="P5:P11" si="1">SUM(K5:M5)/3</f>
+        <v>0.34422302850443004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.52727285182596695</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.523682860124562</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.464216645871325</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.50505745260728463</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.41048978578224099</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.35013577779772898</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.35891127605369699</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.37317894654455563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.57928956910435903</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.54049984711046495</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.55706268153022498</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55895069924834961</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.454456215530749</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.35839730409359999</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.42238593317395501</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.41174648426610133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.52667897646735695</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.58870419921225703</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.55903648387718896</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55813988651893431</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.418024798505646</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.40155597972252099</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.40666854894501098</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.40874977572439269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.480406522346011</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.57251788971658801</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.55887811253265895</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5372675081984194</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.35213817450343798</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.38025934003926198</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.42726486945928499</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38655412800066163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.50486272811813104</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.55194797624185499</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.56342486582696905</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54007852339565166</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.38569940000300601</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.38214019104784802</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.39764086674462201</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38849348593182537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.51880488873427699</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.27451634464359698</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.57873774999465</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45735299445750793</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.39609634154647</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.191344536258897</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.40237602821801699</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.32993896867446132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="11" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(B4:B11), B4:B11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(D4:D11), D4:D11, 0))</f>
+        <v>v2-custom3</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(G4:G11), G4:G11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="11" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(K4:K11), K4:K11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="L12" s="11" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(L4:L11), L4:L11, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="M12" s="11" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(M4:M11), M4:M11, 0))</f>
+        <v>v2-custom1</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="12" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(P4:P11), P4:P11, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="B4:D11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C4ACBE-6B2D-40D6-85AE-1D88EB81D505}">
   <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,403 +8802,6 @@
       <c r="E11" s="12" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
         <v>v2.1-custom1</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="11" t="str">
-        <f>INDEX($H4:$H10, MATCH(MAX(I4:I10), I4:I10, 0))</f>
-        <v>v2.1-custom1</v>
-      </c>
-      <c r="J11" s="11" t="str">
-        <f>INDEX($H4:$H10, MATCH(MAX(J4:J10), J4:J10, 0))</f>
-        <v>v2.1-unstruct</v>
-      </c>
-      <c r="K11" s="11" t="str">
-        <f>INDEX($H4:$H10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
-        <v>v2.1-json</v>
-      </c>
-      <c r="L11" s="19" t="str">
-        <f>INDEX($H4:$H10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
-        <v>v2.1-unstruct</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="I2:K2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:D10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:K10">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BFA5EB-567E-4227-9DD9-3281E0609878}">
-  <dimension ref="A2:L18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="I2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.51732867597054299</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.65595952914717603</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.55734079035108197</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
-        <v>0.57687633182293363</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.40951934516503502</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.51205602316782906</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.405017756581661</v>
-      </c>
-      <c r="L4" s="8">
-        <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
-        <v>0.44219770830484167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.55160691680575102</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.59923595686182496</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.49286878977899101</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.54790388781552235</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.39032199463408501</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.46810744562600998</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.346657346677397</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" si="1"/>
-        <v>0.40169559564583063</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.364513063803519</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.47661611604535298</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.45437259914933997</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.43183392633273732</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.303051264918969</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.35124258010381099</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.30942915926422698</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3212410014290023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.55443062693239797</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.59125034891318395</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.54088393775724197</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5621883045342746</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.43318226968120599</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.46611409734015102</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.41371385483877599</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="1"/>
-        <v>0.43767007395337765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.49699652884176698</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.60961754205441498</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.54622633648558405</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.55094680246058869</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.341115647960886</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.42843267982702798</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.39196877405085701</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38717236727959037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.59527838833603497</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.58784495448829299</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.53212539175057705</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.57174957819163497</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.43555739743058403</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.45441570895440703</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.365022842061546</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="1"/>
-        <v>0.41833198281551232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.52104457398574999</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.60441090612299198</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.53742179951271796</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" ref="E10" si="2">SUM(B10:D10)/3</f>
-        <v>0.5542924265404866</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.36831495360907102</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.44924888676561497</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.38717885259639501</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" ref="L10" si="3">SUM(I10:K10)/3</f>
-        <v>0.40158089765702698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
-        <v>v2.1-custom1</v>
-      </c>
-      <c r="C11" s="11" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
-        <v>v2.1-unstruct</v>
-      </c>
-      <c r="D11" s="11" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
-        <v>v2.1-unstruct</v>
-      </c>
-      <c r="E11" s="12" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
-        <v>v2.1-unstruct</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2245,11 +8874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC60521-07AC-4A58-A8B9-7F9C46143BF8}">
-  <dimension ref="A2:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BFA5EB-567E-4227-9DD9-3281E0609878}">
+  <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,17 +8935,17 @@
         <v>19</v>
       </c>
       <c r="B4" s="17">
-        <v>0.51418724135073102</v>
+        <v>0.51732867597054299</v>
       </c>
       <c r="C4" s="6">
-        <v>0.65752632163805003</v>
+        <v>0.65595952914717603</v>
       </c>
       <c r="D4" s="6">
-        <v>0.55939154720565198</v>
+        <v>0.55734079035108197</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
-        <v>0.57703503673147771</v>
+        <v>0.57687633182293363</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -2324,17 +8953,17 @@
         <v>19</v>
       </c>
       <c r="I4" s="6">
-        <v>0.40091393630130001</v>
+        <v>0.40951934516503502</v>
       </c>
       <c r="J4" s="6">
-        <v>0.51272474295984105</v>
+        <v>0.51205602316782906</v>
       </c>
       <c r="K4" s="6">
-        <v>0.40620984172796898</v>
+        <v>0.405017756581661</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
-        <v>0.43994950699636998</v>
+        <v>0.44219770830484167</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2342,17 +8971,17 @@
         <v>20</v>
       </c>
       <c r="B5" s="6">
-        <v>0.55198222628754201</v>
+        <v>0.55160691680575102</v>
       </c>
       <c r="C5" s="6">
-        <v>0.60014959361070197</v>
+        <v>0.59923595686182496</v>
       </c>
       <c r="D5" s="6">
-        <v>0.54181469908542201</v>
+        <v>0.49286878977899101</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>0.56464883966122204</v>
+        <v>0.54790388781552235</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2360,17 +8989,17 @@
         <v>20</v>
       </c>
       <c r="I5" s="6">
-        <v>0.39034362504565001</v>
+        <v>0.39032199463408501</v>
       </c>
       <c r="J5" s="6">
-        <v>0.46874817789145601</v>
+        <v>0.46810744562600998</v>
       </c>
       <c r="K5" s="6">
-        <v>0.36825546704949302</v>
+        <v>0.346657346677397</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="1"/>
-        <v>0.40911575666219968</v>
+        <v>0.40169559564583063</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2378,17 +9007,17 @@
         <v>21</v>
       </c>
       <c r="B6" s="6">
-        <v>0.36788831285463502</v>
+        <v>0.364513063803519</v>
       </c>
       <c r="C6" s="6">
-        <v>0.47544811103961698</v>
+        <v>0.47661611604535298</v>
       </c>
       <c r="D6" s="6">
-        <v>0.48709566531558002</v>
+        <v>0.45437259914933997</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>0.44347736306994401</v>
+        <v>0.43183392633273732</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2396,17 +9025,17 @@
         <v>21</v>
       </c>
       <c r="I6" s="6">
-        <v>0.30366929283857802</v>
+        <v>0.303051264918969</v>
       </c>
       <c r="J6" s="6">
-        <v>0.34937006414223498</v>
+        <v>0.35124258010381099</v>
       </c>
       <c r="K6" s="6">
-        <v>0.30551202472927802</v>
+        <v>0.30942915926422698</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="1"/>
-        <v>0.31951712723669701</v>
+        <v>0.3212410014290023</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2414,17 +9043,17 @@
         <v>22</v>
       </c>
       <c r="B7" s="6">
-        <v>0.55506954624601601</v>
+        <v>0.55443062693239797</v>
       </c>
       <c r="C7" s="6">
-        <v>0.58665307518651899</v>
+        <v>0.59125034891318395</v>
       </c>
       <c r="D7" s="6">
-        <v>0.53484418308495696</v>
+        <v>0.54088393775724197</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>0.55885560150583069</v>
+        <v>0.5621883045342746</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -2432,17 +9061,17 @@
         <v>22</v>
       </c>
       <c r="I7" s="6">
-        <v>0.43330396859808601</v>
+        <v>0.43318226968120599</v>
       </c>
       <c r="J7" s="6">
-        <v>0.46170557350449298</v>
+        <v>0.46611409734015102</v>
       </c>
       <c r="K7" s="6">
-        <v>0.38452996480186002</v>
+        <v>0.41371385483877599</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="1"/>
-        <v>0.42651316896814634</v>
+        <v>0.43767007395337765</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2450,17 +9079,17 @@
         <v>23</v>
       </c>
       <c r="B8" s="6">
-        <v>0.49393845375988199</v>
+        <v>0.49699652884176698</v>
       </c>
       <c r="C8" s="6">
-        <v>0.61039622246798397</v>
+        <v>0.60961754205441498</v>
       </c>
       <c r="D8" s="6">
-        <v>0.53539768188982395</v>
+        <v>0.54622633648558405</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>0.54657745270589653</v>
+        <v>0.55094680246058869</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2468,17 +9097,17 @@
         <v>23</v>
       </c>
       <c r="I8" s="6">
-        <v>0.34208724030152599</v>
+        <v>0.341115647960886</v>
       </c>
       <c r="J8" s="6">
-        <v>0.42878683997834899</v>
+        <v>0.42843267982702798</v>
       </c>
       <c r="K8" s="6">
-        <v>0.38893120410444798</v>
+        <v>0.39196877405085701</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="1"/>
-        <v>0.38660176146144098</v>
+        <v>0.38717236727959037</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2489,14 +9118,14 @@
         <v>0.59527838833603497</v>
       </c>
       <c r="C9" s="6">
-        <v>0.58861056357336194</v>
+        <v>0.58784495448829299</v>
       </c>
       <c r="D9" s="6">
-        <v>0.56606340562149304</v>
+        <v>0.53212539175057705</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>0.58331745251029665</v>
+        <v>0.57174957819163497</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2507,14 +9136,14 @@
         <v>0.43555739743058403</v>
       </c>
       <c r="J9" s="6">
-        <v>0.454614809398038</v>
+        <v>0.45441570895440703</v>
       </c>
       <c r="K9" s="6">
-        <v>0.388651714988685</v>
+        <v>0.365022842061546</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="1"/>
-        <v>0.42627464060576897</v>
+        <v>0.41833198281551232</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2522,17 +9151,17 @@
         <v>25</v>
       </c>
       <c r="B10" s="6">
-        <v>0.51839037596302595</v>
+        <v>0.52104457398574999</v>
       </c>
       <c r="C10" s="6">
-        <v>0.61663256650652098</v>
+        <v>0.60441090612299198</v>
       </c>
       <c r="D10" s="6">
-        <v>0.51998983545657895</v>
+        <v>0.53742179951271796</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" ref="E10" si="2">SUM(B10:D10)/3</f>
-        <v>0.55167092597537526</v>
+        <v>0.5542924265404866</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -2540,17 +9169,17 @@
         <v>25</v>
       </c>
       <c r="I10" s="6">
-        <v>0.36481862147728</v>
+        <v>0.36831495360907102</v>
       </c>
       <c r="J10" s="6">
-        <v>0.45340539500627303</v>
+        <v>0.44924888676561497</v>
       </c>
       <c r="K10" s="6">
-        <v>0.345648093628183</v>
+        <v>0.38717885259639501</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ref="L10" si="3">SUM(I10:K10)/3</f>
-        <v>0.38795737003724534</v>
+        <v>0.40158089765702698</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2565,11 +9194,11 @@
       </c>
       <c r="D11" s="11" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
-        <v>v2.1-custom1</v>
+        <v>v2.1-unstruct</v>
       </c>
       <c r="E11" s="12" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
-        <v>v2.1-custom1</v>
+        <v>v2.1-unstruct</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2584,7 +9213,7 @@
       </c>
       <c r="K11" s="11" t="str">
         <f>INDEX($H4:$H10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
-        <v>v2.1-unstruct</v>
+        <v>v2.1-json</v>
       </c>
       <c r="L11" s="19" t="str">
         <f>INDEX($H4:$H10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
@@ -2605,14 +9234,7 @@
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2649,6 +9271,410 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC60521-07AC-4A58-A8B9-7F9C46143BF8}">
+  <dimension ref="A2:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="I2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.51418724135073102</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.65752632163805003</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.55939154720565198</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E9" si="0">SUM(B4:D4)/3</f>
+        <v>0.57703503673147771</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.40091393630130001</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.51272474295984105</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.40620984172796898</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L9" si="1">SUM(I4:K4)/3</f>
+        <v>0.43994950699636998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.55198222628754201</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.60014959361070197</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.54181469908542201</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.56464883966122204</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.39034362504565001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.46874817789145601</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.36825546704949302</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.40911575666219968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.36788831285463502</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.47544811103961698</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.48709566531558002</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44347736306994401</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.30366929283857802</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.34937006414223498</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.30551202472927802</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.31951712723669701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.55506954624601601</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.58665307518651899</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.53484418308495696</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55885560150583069</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.43330396859808601</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.46170557350449298</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.38452996480186002</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42651316896814634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.49393845375988199</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.61039622246798397</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.53539768188982395</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54657745270589653</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.34208724030152599</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.42878683997834899</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.38893120410444798</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38660176146144098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.59527838833603497</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.58861056357336194</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.56606340562149304</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58331745251029665</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.43555739743058403</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.454614809398038</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.388651714988685</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42627464060576897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.51839037596302595</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.61663256650652098</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.51998983545657895</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10" si="2">SUM(B10:D10)/3</f>
+        <v>0.55167092597537526</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.36481862147728</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.45340539500627303</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.345648093628183</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10" si="3">SUM(I10:K10)/3</f>
+        <v>0.38795737003724534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(I4:I10), I4:I10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(J4:J10), J4:J10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="L11" s="19" t="str">
+        <f>INDEX($H4:$H10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
+        <v>v2.1-unstruct</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:K10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E121A363-FC9D-421C-B4C0-C742E7C05D40}">
   <dimension ref="A2:L20"/>
   <sheetViews>
@@ -3052,7 +10078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47B1458-BA4B-4EAE-BCE9-A2C3FC37BD74}">
   <dimension ref="A2:L21"/>
   <sheetViews>
@@ -3499,7 +10525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA7B5C7-8A33-4FD1-986B-A27316631CA2}">
   <dimension ref="A2:L15"/>
   <sheetViews>
@@ -3859,7 +10885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525F6779-DD0B-49D7-B276-92B104E5F465}">
   <dimension ref="A2:L10"/>
   <sheetViews>
@@ -4203,7 +11229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA93D1B-782E-46E2-8D44-78C4206E258C}">
   <dimension ref="A2:L10"/>
   <sheetViews>
@@ -4553,504 +11579,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3891B14-8636-44EC-9D3D-F5390233C3F1}">
-  <dimension ref="A2:P12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.55282721950575597</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.62246793579406001</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.45629657538639301</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8">
-        <f>SUM(B4:D4)/3</f>
-        <v>0.54386391022873626</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.43751031468843898</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.47003194450603097</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.33526660156842503</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <f>SUM(K4:M4)/3</f>
-        <v>0.41426962025429831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.56978527923281097</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.449792141075194</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.42881839385567599</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8">
-        <f t="shared" ref="G5:G11" si="0">SUM(B5:D5)/3</f>
-        <v>0.48279860472122699</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.45413430593265502</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.293922915895311</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0.28461186368532398</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <f t="shared" ref="P5:P11" si="1">SUM(K5:M5)/3</f>
-        <v>0.34422302850443004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.52727285182596695</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.523682860124562</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.464216645871325</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.50505745260728463</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.41048978578224099</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.35013577779772898</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.35891127605369699</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37317894654455563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.57928956910435903</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.54049984711046495</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.55706268153022498</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.55895069924834961</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.454456215530749</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.35839730409359999</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0.42238593317395501</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <f t="shared" si="1"/>
-        <v>0.41174648426610133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.52667897646735695</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.58870419921225703</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.55903648387718896</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.55813988651893431</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.418024798505646</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.40155597972252099</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0.40666854894501098</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <f t="shared" si="1"/>
-        <v>0.40874977572439269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.480406522346011</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.57251788971658801</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.55887811253265895</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5372675081984194</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.35213817450343798</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.38025934003926198</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0.42726486945928499</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38655412800066163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.50486272811813104</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.55194797624185499</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.56342486582696905</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.54007852339565166</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.38569940000300601</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.38214019104784802</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0.39764086674462201</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38849348593182537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.51880488873427699</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.27451634464359698</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.57873774999465</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.45735299445750793</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0.39609634154647</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0.191344536258897</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0.40237602821801699</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32993896867446132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="11" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(B4:B11), B4:B11, 0))</f>
-        <v>v2-json</v>
-      </c>
-      <c r="C12" s="11" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
-        <v>v0-unstruct</v>
-      </c>
-      <c r="D12" s="11" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(D4:D11), D4:D11, 0))</f>
-        <v>v2-custom3</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(G4:G11), G4:G11, 0))</f>
-        <v>v2-json</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="11" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(K4:K11), K4:K11, 0))</f>
-        <v>v2-json</v>
-      </c>
-      <c r="L12" s="11" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(L4:L11), L4:L11, 0))</f>
-        <v>v0-unstruct</v>
-      </c>
-      <c r="M12" s="11" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(M4:M11), M4:M11, 0))</f>
-        <v>v2-custom1</v>
-      </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="12" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(P4:P11), P4:P11, 0))</f>
-        <v>v0-unstruct</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="L2:P2"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B4:D11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:M11">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/results/Overall_score_analysis.xlsx
+++ b/results/Overall_score_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34542619\Documents\GitHub\LLM_Interpretability_Research\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashvinn\Documents\GitHub\LLM_Interpretability_Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841E23DE-D50A-48A5-B14F-06B1C732E333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F92B8-1103-4A44-8589-845F5371BE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FE4610ED-2644-4B09-8F25-61DCA81DFAD7}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="93">
   <si>
     <t>ROUGE 1</t>
   </si>
@@ -350,6 +350,46 @@
       <t>[Questions = 50]</t>
     </r>
   </si>
+  <si>
+    <t>v1-html</t>
+  </si>
+  <si>
+    <t>v1-json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Average Rouge Scores of LLM responses for 2 Extraction Techniques </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Questions = 5]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -458,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +538,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -757,12 +803,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -771,9 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -803,6 +840,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4062,7 +4117,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4098,14 +4153,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>688974</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>3807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5551,10 +5606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC4867-F5DB-4078-9C45-5B7B70F1A2FB}">
-  <dimension ref="A2:BA95"/>
+  <dimension ref="A2:BA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V88" sqref="V88"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S85" sqref="S85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5579,11 +5634,11 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -7081,11 +7136,11 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
@@ -8588,11 +8643,11 @@
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
@@ -10090,11 +10145,11 @@
       </c>
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
@@ -11597,11 +11652,11 @@
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
@@ -13099,11 +13154,11 @@
       </c>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
@@ -14601,308 +14656,470 @@
     </row>
     <row r="75" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="38" t="s">
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="40"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="37"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="34" t="s">
+      <c r="E77" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F77" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="G77" s="27" t="s">
+      <c r="G77" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="H77" s="27" t="s">
+      <c r="H77" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I77" s="34" t="s">
+      <c r="I77" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="30">
+      <c r="B78" s="28">
         <v>0.567183938931617</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78" s="6">
         <v>0.47006143353935598</v>
       </c>
-      <c r="D78" s="31">
+      <c r="D78" s="6">
         <v>0.385122439154302</v>
       </c>
-      <c r="E78" s="35">
-        <v>0.47412260387509197</v>
-      </c>
-      <c r="F78" s="30">
+      <c r="E78" s="32">
+        <f>AVERAGE(B78:D78)</f>
+        <v>0.47412260387509164</v>
+      </c>
+      <c r="F78" s="28">
         <v>0.37279318899295799</v>
       </c>
-      <c r="G78" s="31">
+      <c r="G78" s="6">
         <v>0.30280728568397802</v>
       </c>
-      <c r="H78" s="31">
+      <c r="H78" s="6">
         <v>0.284066793407527</v>
       </c>
-      <c r="I78" s="35">
-        <v>0.31988908936148802</v>
+      <c r="I78" s="32">
+        <f>AVERAGE(F78:H78)</f>
+        <v>0.31988908936148763</v>
       </c>
     </row>
     <row r="79" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="30">
+      <c r="B79" s="28">
         <v>0.57086994755709897</v>
       </c>
-      <c r="C79" s="31">
+      <c r="C79" s="6">
         <v>0.47444963823467701</v>
       </c>
-      <c r="D79" s="31">
+      <c r="D79" s="6">
         <v>0.37870579294234302</v>
       </c>
-      <c r="E79" s="35">
-        <v>0.47467512624470598</v>
-      </c>
-      <c r="F79" s="30">
+      <c r="E79" s="32">
+        <f>AVERAGE(B79:D79)</f>
+        <v>0.47467512624470637</v>
+      </c>
+      <c r="F79" s="28">
         <v>0.38188923151713899</v>
       </c>
-      <c r="G79" s="31">
+      <c r="G79" s="6">
         <v>0.30639827491161198</v>
       </c>
-      <c r="H79" s="31">
+      <c r="H79" s="6">
         <v>0.279169823699705</v>
       </c>
-      <c r="I79" s="35">
-        <v>0.32248577670948603</v>
+      <c r="I79" s="32">
+        <f t="shared" ref="I79:I84" si="15">AVERAGE(F79:H79)</f>
+        <v>0.32248577670948536</v>
       </c>
     </row>
     <row r="80" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="30">
+      <c r="B80" s="28">
         <v>0.58032479652408997</v>
       </c>
-      <c r="C80" s="31">
+      <c r="C80" s="6">
         <v>0.48059646756436902</v>
       </c>
-      <c r="D80" s="31">
+      <c r="D80" s="6">
         <v>0.380070848703502</v>
       </c>
-      <c r="E80" s="37">
-        <v>0.480330704263987</v>
-      </c>
-      <c r="F80" s="30">
+      <c r="E80" s="34">
+        <f>AVERAGE(B80:D80)</f>
+        <v>0.48033070426398705</v>
+      </c>
+      <c r="F80" s="28">
         <v>0.38564852870778998</v>
       </c>
-      <c r="G80" s="31">
+      <c r="G80" s="6">
         <v>0.31785765360370599</v>
       </c>
-      <c r="H80" s="31">
+      <c r="H80" s="6">
         <v>0.27957284305094798</v>
       </c>
-      <c r="I80" s="37">
+      <c r="I80" s="34">
+        <f t="shared" si="15"/>
         <v>0.327693008454148</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="30">
+      <c r="B81" s="28">
         <v>0.58659454569478298</v>
       </c>
-      <c r="C81" s="31">
+      <c r="C81" s="6">
         <v>0.48587465507041799</v>
       </c>
-      <c r="D81" s="31">
+      <c r="D81" s="6">
         <v>0.35441940934631599</v>
       </c>
-      <c r="E81" s="35">
+      <c r="E81" s="32">
+        <f>AVERAGE(B81:D81)</f>
         <v>0.47562953670383901</v>
       </c>
-      <c r="F81" s="30">
+      <c r="F81" s="28">
         <v>0.392041793576486</v>
       </c>
-      <c r="G81" s="31">
+      <c r="G81" s="6">
         <v>0.31647585203767398</v>
       </c>
-      <c r="H81" s="31">
+      <c r="H81" s="6">
         <v>0.25923274215862302</v>
       </c>
-      <c r="I81" s="35">
-        <v>0.32258346259092802</v>
+      <c r="I81" s="32">
+        <f t="shared" si="15"/>
+        <v>0.32258346259092768</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="30">
+      <c r="B82" s="28">
         <v>0.57917659983401704</v>
       </c>
-      <c r="C82" s="31">
+      <c r="C82" s="6">
         <v>0.481802462510729</v>
       </c>
-      <c r="D82" s="31">
+      <c r="D82" s="6">
         <v>0.37627162146554</v>
       </c>
-      <c r="E82" s="37">
-        <v>0.47908356127009499</v>
-      </c>
-      <c r="F82" s="30">
+      <c r="E82" s="34">
+        <f>AVERAGE(B82:D82)</f>
+        <v>0.47908356127009527</v>
+      </c>
+      <c r="F82" s="28">
         <v>0.38300165360511101</v>
       </c>
-      <c r="G82" s="31">
+      <c r="G82" s="6">
         <v>0.32085242330722302</v>
       </c>
-      <c r="H82" s="31">
+      <c r="H82" s="6">
         <v>0.275558419527554</v>
       </c>
-      <c r="I82" s="37">
-        <v>0.32647083214662898</v>
+      <c r="I82" s="34">
+        <f t="shared" si="15"/>
+        <v>0.32647083214662936</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="30">
+      <c r="B83" s="28">
         <v>0.57737044381272296</v>
       </c>
-      <c r="C83" s="31">
+      <c r="C83" s="6">
         <v>0.47930560514183201</v>
       </c>
-      <c r="D83" s="31">
+      <c r="D83" s="6">
         <v>0.37746323177083702</v>
       </c>
-      <c r="E83" s="37">
-        <v>0.47804642690846399</v>
-      </c>
-      <c r="F83" s="30">
+      <c r="E83" s="34">
+        <f>AVERAGE(B83:D83)</f>
+        <v>0.47804642690846405</v>
+      </c>
+      <c r="F83" s="28">
         <v>0.38007584814239698</v>
       </c>
-      <c r="G83" s="31">
+      <c r="G83" s="6">
         <v>0.31891316693524102</v>
       </c>
-      <c r="H83" s="31">
+      <c r="H83" s="6">
         <v>0.27766391030806098</v>
       </c>
-      <c r="I83" s="37">
-        <v>0.32555097512856601</v>
+      <c r="I83" s="34">
+        <f t="shared" si="15"/>
+        <v>0.32555097512856634</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="32">
+      <c r="B84" s="29">
         <v>0.56077243672835198</v>
       </c>
-      <c r="C84" s="33">
+      <c r="C84" s="30">
         <v>0.44986708557111899</v>
       </c>
-      <c r="D84" s="33">
+      <c r="D84" s="30">
         <v>0.33969443159513002</v>
       </c>
-      <c r="E84" s="36">
-        <v>0.45011131796486697</v>
-      </c>
-      <c r="F84" s="32">
+      <c r="E84" s="32">
+        <f>AVERAGE(B84:D84)</f>
+        <v>0.45011131796486703</v>
+      </c>
+      <c r="F84" s="29">
         <v>0.37083384684944498</v>
       </c>
-      <c r="G84" s="33">
+      <c r="G84" s="30">
         <v>0.29620085203309099</v>
       </c>
-      <c r="H84" s="33">
+      <c r="H84" s="30">
         <v>0.24639994171628199</v>
       </c>
-      <c r="I84" s="36">
-        <v>0.30447821353293902</v>
+      <c r="I84" s="32">
+        <f t="shared" si="15"/>
+        <v>0.3044782135329393</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
     </row>
+    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
+      <c r="A88" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="37"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
+      <c r="A89" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89" s="31" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
+      <c r="A90" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="41">
+        <v>0.49982578011343398</v>
+      </c>
+      <c r="C90" s="41">
+        <v>0.435238278516282</v>
+      </c>
+      <c r="D90" s="41">
+        <v>0.30738522954091801</v>
+      </c>
+      <c r="E90" s="32">
+        <f>AVERAGE(B90:D90)</f>
+        <v>0.41414976272354465</v>
+      </c>
+      <c r="F90" s="28">
+        <v>0.36036963581856901</v>
+      </c>
+      <c r="G90" s="41">
+        <v>0.27573187971421498</v>
+      </c>
+      <c r="H90" s="41">
+        <v>0.26347305389221498</v>
+      </c>
+      <c r="I90" s="32">
+        <f t="shared" ref="I90:I93" si="16">AVERAGE(F90:H90)</f>
+        <v>0.29985818980833301</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
+      <c r="A91" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="41">
+        <v>0.54521269983342002</v>
+      </c>
+      <c r="C91" s="41">
+        <v>0.46271629357205901</v>
+      </c>
+      <c r="D91" s="41">
+        <v>0.29395028451632199</v>
+      </c>
+      <c r="E91" s="32">
+        <f>AVERAGE(B91:D91)</f>
+        <v>0.43395975930726699</v>
+      </c>
+      <c r="F91" s="28">
+        <v>0.36238976085697899</v>
+      </c>
+      <c r="G91" s="41">
+        <v>0.30778205122284502</v>
+      </c>
+      <c r="H91" s="41">
+        <v>0.25756214435459701</v>
+      </c>
+      <c r="I91" s="32">
+        <f t="shared" si="16"/>
+        <v>0.30924465214480701</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
+      <c r="A92" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="41">
+        <v>0.64671364674347598</v>
+      </c>
+      <c r="C92" s="41">
+        <v>0.54378525220363005</v>
+      </c>
+      <c r="D92" s="41">
+        <v>0.354564127059947</v>
+      </c>
+      <c r="E92" s="44">
+        <f>AVERAGE(B92:D92)</f>
+        <v>0.51502100866901757</v>
+      </c>
+      <c r="F92" s="28">
+        <v>0.51309587488069996</v>
+      </c>
+      <c r="G92" s="41">
+        <v>0.37243377358513902</v>
+      </c>
+      <c r="H92" s="41">
+        <v>0.29028049783722099</v>
+      </c>
+      <c r="I92" s="44">
+        <f t="shared" si="16"/>
+        <v>0.39193671543435338</v>
+      </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="30">
+        <v>0.59245147782769902</v>
+      </c>
+      <c r="C93" s="30">
+        <v>0.50019750239055005</v>
+      </c>
+      <c r="D93" s="30">
+        <v>0.39773357460765502</v>
+      </c>
+      <c r="E93" s="33">
+        <f>AVERAGE(B93:D93)</f>
+        <v>0.49679418494196809</v>
+      </c>
+      <c r="F93" s="29">
+        <v>0.42207427956232701</v>
+      </c>
+      <c r="G93" s="30">
+        <v>0.32910499680730398</v>
+      </c>
+      <c r="H93" s="30">
+        <v>0.33907803775515599</v>
+      </c>
+      <c r="I93" s="33">
+        <f t="shared" si="16"/>
+        <v>0.36341910470826227</v>
+      </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+    <row r="94" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="A94:I94"/>
     <mergeCell ref="B76:E76"/>
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="A85:I85"/>
@@ -14914,7 +15131,7 @@
     <mergeCell ref="B64:D64"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B11">
-    <cfRule type="colorScale" priority="302">
+    <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14925,8 +15142,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C11">
-    <cfRule type="colorScale" priority="303">
+  <conditionalFormatting sqref="B16:B22">
+    <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14937,8 +15154,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D11">
-    <cfRule type="colorScale" priority="304">
+  <conditionalFormatting sqref="B30:B36">
+    <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14949,8 +15166,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E11">
-    <cfRule type="colorScale" priority="305">
+  <conditionalFormatting sqref="B41:B47">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14961,8 +15178,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F11">
-    <cfRule type="colorScale" priority="306">
+  <conditionalFormatting sqref="B55:B61">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14973,8 +15190,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G11">
-    <cfRule type="colorScale" priority="307">
+  <conditionalFormatting sqref="B66:B72">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14985,8 +15202,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H11">
-    <cfRule type="colorScale" priority="308">
+  <conditionalFormatting sqref="B78:B84">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14997,8 +15214,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I11">
-    <cfRule type="colorScale" priority="309">
+  <conditionalFormatting sqref="C5:C11">
+    <cfRule type="colorScale" priority="311">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15009,8 +15226,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J11">
-    <cfRule type="colorScale" priority="310">
+  <conditionalFormatting sqref="C16:C22">
+    <cfRule type="colorScale" priority="261">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15021,8 +15238,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K11">
-    <cfRule type="colorScale" priority="311">
+  <conditionalFormatting sqref="C30:C36">
+    <cfRule type="colorScale" priority="211">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15033,8 +15250,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L11">
-    <cfRule type="colorScale" priority="292">
+  <conditionalFormatting sqref="C41:C47">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15045,8 +15262,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M11">
-    <cfRule type="colorScale" priority="293">
+  <conditionalFormatting sqref="C55:C61">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15057,8 +15274,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N11">
-    <cfRule type="colorScale" priority="294">
+  <conditionalFormatting sqref="C66:C72">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15069,8 +15286,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O11">
-    <cfRule type="colorScale" priority="295">
+  <conditionalFormatting sqref="C78:C84">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15081,8 +15298,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P11">
-    <cfRule type="colorScale" priority="296">
+  <conditionalFormatting sqref="D5:D11">
+    <cfRule type="colorScale" priority="312">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15093,8 +15310,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q11">
-    <cfRule type="colorScale" priority="297">
+  <conditionalFormatting sqref="D16:D22">
+    <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15105,8 +15322,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R11">
-    <cfRule type="colorScale" priority="298">
+  <conditionalFormatting sqref="D30:D36">
+    <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15117,8 +15334,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S11">
-    <cfRule type="colorScale" priority="299">
+  <conditionalFormatting sqref="D41:D47">
+    <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15129,8 +15346,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T11">
-    <cfRule type="colorScale" priority="300">
+  <conditionalFormatting sqref="D55:D61">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15141,8 +15358,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U11">
-    <cfRule type="colorScale" priority="301">
+  <conditionalFormatting sqref="D66:D72">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15153,8 +15370,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V11">
-    <cfRule type="colorScale" priority="282">
+  <conditionalFormatting sqref="D78:D84">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15165,8 +15382,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W5:W11">
-    <cfRule type="colorScale" priority="283">
+  <conditionalFormatting sqref="E5:E11">
+    <cfRule type="colorScale" priority="313">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15177,8 +15394,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X5:X11">
-    <cfRule type="colorScale" priority="284">
+  <conditionalFormatting sqref="E16:E22">
+    <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15189,8 +15406,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y5:Y11">
-    <cfRule type="colorScale" priority="285">
+  <conditionalFormatting sqref="E30:E36">
+    <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15201,8 +15418,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z11">
-    <cfRule type="colorScale" priority="286">
+  <conditionalFormatting sqref="E41:E47">
+    <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15213,8 +15430,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA11">
-    <cfRule type="colorScale" priority="287">
+  <conditionalFormatting sqref="E55:E61">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15225,8 +15442,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB11">
-    <cfRule type="colorScale" priority="288">
+  <conditionalFormatting sqref="E66:E72">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15237,8 +15454,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC5:AC11">
-    <cfRule type="colorScale" priority="289">
+  <conditionalFormatting sqref="E78:E84">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <color theme="3" tint="9.9978637043366805E-2"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="colorScale" priority="314">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15249,8 +15478,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD5:AD11">
-    <cfRule type="colorScale" priority="290">
+  <conditionalFormatting sqref="F16:F22">
+    <cfRule type="colorScale" priority="264">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15261,8 +15490,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE5:AE11">
-    <cfRule type="colorScale" priority="291">
+  <conditionalFormatting sqref="F30:F36">
+    <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15273,8 +15502,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF5:AF11">
-    <cfRule type="colorScale" priority="272">
+  <conditionalFormatting sqref="F41:F47">
+    <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15285,8 +15514,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG5:AG11">
-    <cfRule type="colorScale" priority="273">
+  <conditionalFormatting sqref="F55:F61">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15297,8 +15526,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH5:AH11">
-    <cfRule type="colorScale" priority="274">
+  <conditionalFormatting sqref="F66:F72">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15309,8 +15538,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AI11">
-    <cfRule type="colorScale" priority="275">
+  <conditionalFormatting sqref="F78:F84">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15321,8 +15550,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ5:AJ11">
-    <cfRule type="colorScale" priority="276">
+  <conditionalFormatting sqref="G5:G11">
+    <cfRule type="colorScale" priority="315">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15333,8 +15562,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AK11">
-    <cfRule type="colorScale" priority="277">
+  <conditionalFormatting sqref="G16:G22">
+    <cfRule type="colorScale" priority="265">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15345,8 +15574,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AL11">
-    <cfRule type="colorScale" priority="278">
+  <conditionalFormatting sqref="G30:G36">
+    <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15357,8 +15586,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM5:AM11">
-    <cfRule type="colorScale" priority="279">
+  <conditionalFormatting sqref="G41:G47">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15369,8 +15598,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AN11">
-    <cfRule type="colorScale" priority="280">
+  <conditionalFormatting sqref="G55:G61">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15381,8 +15610,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO5:AO11">
-    <cfRule type="colorScale" priority="281">
+  <conditionalFormatting sqref="G66:G72">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15393,8 +15622,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP5:AP11">
-    <cfRule type="colorScale" priority="262">
+  <conditionalFormatting sqref="G78:G84">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15405,8 +15634,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ5:AQ11">
-    <cfRule type="colorScale" priority="263">
+  <conditionalFormatting sqref="H5:H11">
+    <cfRule type="colorScale" priority="316">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15417,8 +15646,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR5:AR11">
-    <cfRule type="colorScale" priority="264">
+  <conditionalFormatting sqref="H16:H22">
+    <cfRule type="colorScale" priority="266">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15429,8 +15658,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS5:AS11">
-    <cfRule type="colorScale" priority="265">
+  <conditionalFormatting sqref="H30:H36">
+    <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15441,8 +15670,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT5:AT11">
-    <cfRule type="colorScale" priority="266">
+  <conditionalFormatting sqref="H41:H47">
+    <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15453,8 +15682,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU5:AU11">
-    <cfRule type="colorScale" priority="267">
+  <conditionalFormatting sqref="H55:H61">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15465,8 +15694,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV5:AV11">
-    <cfRule type="colorScale" priority="268">
+  <conditionalFormatting sqref="H66:H72">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15477,8 +15706,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW5:AW11">
-    <cfRule type="colorScale" priority="269">
+  <conditionalFormatting sqref="H78:H84">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15489,8 +15718,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX5:AX11">
-    <cfRule type="colorScale" priority="270">
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="colorScale" priority="317">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15501,8 +15730,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY5:AY11">
-    <cfRule type="colorScale" priority="271">
+  <conditionalFormatting sqref="I16:I22">
+    <cfRule type="colorScale" priority="267">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15513,8 +15742,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B22">
-    <cfRule type="colorScale" priority="252">
+  <conditionalFormatting sqref="I30:I36">
+    <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15525,8 +15754,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C22">
-    <cfRule type="colorScale" priority="253">
+  <conditionalFormatting sqref="I41:I47">
+    <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15537,8 +15766,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D22">
-    <cfRule type="colorScale" priority="254">
+  <conditionalFormatting sqref="I55:I61">
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15549,8 +15778,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E22">
-    <cfRule type="colorScale" priority="255">
+  <conditionalFormatting sqref="I66:I72">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15561,8 +15790,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F22">
-    <cfRule type="colorScale" priority="256">
+  <conditionalFormatting sqref="I78:I84">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <color theme="3" tint="9.9978637043366805E-2"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J11">
+    <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15573,8 +15814,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G22">
-    <cfRule type="colorScale" priority="257">
+  <conditionalFormatting sqref="J16:J22">
+    <cfRule type="colorScale" priority="268">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15585,8 +15826,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H22">
-    <cfRule type="colorScale" priority="258">
+  <conditionalFormatting sqref="J30:J36">
+    <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15597,8 +15838,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:I22">
-    <cfRule type="colorScale" priority="259">
+  <conditionalFormatting sqref="J41:J47">
+    <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15609,8 +15850,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J22">
-    <cfRule type="colorScale" priority="260">
+  <conditionalFormatting sqref="J55:J61">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15621,8 +15862,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K22">
-    <cfRule type="colorScale" priority="261">
+  <conditionalFormatting sqref="J66:J72">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15633,8 +15874,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L22">
-    <cfRule type="colorScale" priority="242">
+  <conditionalFormatting sqref="K5:K11">
+    <cfRule type="colorScale" priority="319">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15645,8 +15886,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M22">
-    <cfRule type="colorScale" priority="243">
+  <conditionalFormatting sqref="K16:K22">
+    <cfRule type="colorScale" priority="269">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15657,8 +15898,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N22">
-    <cfRule type="colorScale" priority="244">
+  <conditionalFormatting sqref="K30:K36">
+    <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15669,8 +15910,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O16:O22">
-    <cfRule type="colorScale" priority="245">
+  <conditionalFormatting sqref="K41:K47">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15681,8 +15922,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P16:P22">
-    <cfRule type="colorScale" priority="246">
+  <conditionalFormatting sqref="K55:K61">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15693,8 +15934,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16:Q22">
-    <cfRule type="colorScale" priority="247">
+  <conditionalFormatting sqref="K66:K72">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15705,8 +15946,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16:R22">
-    <cfRule type="colorScale" priority="248">
+  <conditionalFormatting sqref="L5:L11">
+    <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15717,8 +15958,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S16:S22">
-    <cfRule type="colorScale" priority="249">
+  <conditionalFormatting sqref="L16:L22">
+    <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15729,8 +15970,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T16:T22">
-    <cfRule type="colorScale" priority="250">
+  <conditionalFormatting sqref="L30:L36">
+    <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15741,8 +15982,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U16:U22">
-    <cfRule type="colorScale" priority="251">
+  <conditionalFormatting sqref="L41:L47">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15753,8 +15994,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V16:V22">
-    <cfRule type="colorScale" priority="232">
+  <conditionalFormatting sqref="L55:L61">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15765,8 +16006,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W16:W22">
-    <cfRule type="colorScale" priority="233">
+  <conditionalFormatting sqref="L66:L72">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15777,8 +16018,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16:X22">
-    <cfRule type="colorScale" priority="234">
+  <conditionalFormatting sqref="M5:M11">
+    <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15789,8 +16030,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:Y22">
-    <cfRule type="colorScale" priority="235">
+  <conditionalFormatting sqref="M16:M22">
+    <cfRule type="colorScale" priority="251">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15801,8 +16042,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:Z22">
-    <cfRule type="colorScale" priority="236">
+  <conditionalFormatting sqref="M30:M36">
+    <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15813,8 +16054,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA16:AA22">
-    <cfRule type="colorScale" priority="237">
+  <conditionalFormatting sqref="M41:M47">
+    <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15825,8 +16066,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB16:AB22">
-    <cfRule type="colorScale" priority="238">
+  <conditionalFormatting sqref="M55:M61">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15837,8 +16078,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC16:AC22">
-    <cfRule type="colorScale" priority="239">
+  <conditionalFormatting sqref="M66:M72">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15849,8 +16090,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD16:AD22">
-    <cfRule type="colorScale" priority="240">
+  <conditionalFormatting sqref="N5:N11">
+    <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15861,8 +16102,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16:AE22">
-    <cfRule type="colorScale" priority="241">
+  <conditionalFormatting sqref="N16:N22">
+    <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15873,8 +16114,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF16:AF22">
-    <cfRule type="colorScale" priority="222">
+  <conditionalFormatting sqref="N30:N36">
+    <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15885,8 +16126,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG16:AG22">
-    <cfRule type="colorScale" priority="223">
+  <conditionalFormatting sqref="N41:N47">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15897,8 +16138,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH16:AH22">
-    <cfRule type="colorScale" priority="224">
+  <conditionalFormatting sqref="N55:N61">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15909,8 +16150,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI16:AI22">
-    <cfRule type="colorScale" priority="225">
+  <conditionalFormatting sqref="N66:N72">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15921,8 +16162,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ16:AJ22">
-    <cfRule type="colorScale" priority="226">
+  <conditionalFormatting sqref="O5:O11">
+    <cfRule type="colorScale" priority="303">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15933,8 +16174,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AK22">
-    <cfRule type="colorScale" priority="227">
+  <conditionalFormatting sqref="O16:O22">
+    <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15945,8 +16186,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL16:AL22">
-    <cfRule type="colorScale" priority="228">
+  <conditionalFormatting sqref="O30:O36">
+    <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15957,8 +16198,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM16:AM22">
-    <cfRule type="colorScale" priority="229">
+  <conditionalFormatting sqref="O41:O47">
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15969,8 +16210,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN16:AN22">
-    <cfRule type="colorScale" priority="230">
+  <conditionalFormatting sqref="O55:O61">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15981,8 +16222,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO16:AO22">
-    <cfRule type="colorScale" priority="231">
+  <conditionalFormatting sqref="O66:O72">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15993,8 +16234,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP16:AP22">
-    <cfRule type="colorScale" priority="212">
+  <conditionalFormatting sqref="P5:P11">
+    <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16005,8 +16246,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ16:AQ22">
-    <cfRule type="colorScale" priority="213">
+  <conditionalFormatting sqref="P16:P22">
+    <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16017,8 +16258,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR16:AR22">
-    <cfRule type="colorScale" priority="214">
+  <conditionalFormatting sqref="P30:P36">
+    <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16029,8 +16270,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS16:AS22">
-    <cfRule type="colorScale" priority="215">
+  <conditionalFormatting sqref="P41:P47">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16041,8 +16282,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT16:AT22">
-    <cfRule type="colorScale" priority="216">
+  <conditionalFormatting sqref="P55:P61">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16053,8 +16294,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU16:AU22">
-    <cfRule type="colorScale" priority="217">
+  <conditionalFormatting sqref="P66:P72">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16065,8 +16306,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV16:AV22">
-    <cfRule type="colorScale" priority="218">
+  <conditionalFormatting sqref="Q5:Q11">
+    <cfRule type="colorScale" priority="305">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16077,8 +16318,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW16:AW22">
-    <cfRule type="colorScale" priority="219">
+  <conditionalFormatting sqref="Q16:Q22">
+    <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16089,8 +16330,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX16:AX22">
-    <cfRule type="colorScale" priority="220">
+  <conditionalFormatting sqref="Q30:Q36">
+    <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16101,8 +16342,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY16:AY22">
-    <cfRule type="colorScale" priority="221">
+  <conditionalFormatting sqref="Q41:Q47">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16113,8 +16354,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B36">
-    <cfRule type="colorScale" priority="202">
+  <conditionalFormatting sqref="Q55:Q61">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16125,8 +16366,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C36">
-    <cfRule type="colorScale" priority="203">
+  <conditionalFormatting sqref="Q66:Q72">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16137,8 +16378,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D36">
-    <cfRule type="colorScale" priority="204">
+  <conditionalFormatting sqref="R5:R11">
+    <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16149,8 +16390,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E36">
-    <cfRule type="colorScale" priority="205">
+  <conditionalFormatting sqref="R16:R22">
+    <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16161,7 +16402,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F36">
+  <conditionalFormatting sqref="R30:R36">
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
@@ -16173,8 +16414,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G36">
-    <cfRule type="colorScale" priority="207">
+  <conditionalFormatting sqref="R41:R47">
+    <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16185,8 +16426,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H36">
-    <cfRule type="colorScale" priority="208">
+  <conditionalFormatting sqref="R55:R61">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16197,8 +16438,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I36">
-    <cfRule type="colorScale" priority="209">
+  <conditionalFormatting sqref="R66:R72">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16209,8 +16450,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J36">
-    <cfRule type="colorScale" priority="210">
+  <conditionalFormatting sqref="S5:S11">
+    <cfRule type="colorScale" priority="307">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16221,8 +16462,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:K36">
-    <cfRule type="colorScale" priority="211">
+  <conditionalFormatting sqref="S16:S22">
+    <cfRule type="colorScale" priority="257">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16233,8 +16474,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:L36">
-    <cfRule type="colorScale" priority="192">
+  <conditionalFormatting sqref="S30:S36">
+    <cfRule type="colorScale" priority="207">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16245,8 +16486,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M36">
-    <cfRule type="colorScale" priority="193">
+  <conditionalFormatting sqref="S41:S47">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16257,8 +16498,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30:N36">
-    <cfRule type="colorScale" priority="194">
+  <conditionalFormatting sqref="S55:S61">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16269,8 +16510,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O36">
-    <cfRule type="colorScale" priority="195">
+  <conditionalFormatting sqref="S66:S72">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16281,8 +16522,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P30:P36">
-    <cfRule type="colorScale" priority="196">
+  <conditionalFormatting sqref="T5:T11">
+    <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16293,8 +16534,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30:Q36">
-    <cfRule type="colorScale" priority="197">
+  <conditionalFormatting sqref="T16:T22">
+    <cfRule type="colorScale" priority="258">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16305,8 +16546,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30:R36">
-    <cfRule type="colorScale" priority="198">
+  <conditionalFormatting sqref="T30:T36">
+    <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16317,8 +16558,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30:S36">
-    <cfRule type="colorScale" priority="199">
+  <conditionalFormatting sqref="T41:T47">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16329,8 +16570,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30:T36">
-    <cfRule type="colorScale" priority="200">
+  <conditionalFormatting sqref="T55:T61">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16341,8 +16582,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U30:U36">
-    <cfRule type="colorScale" priority="201">
+  <conditionalFormatting sqref="T66:T72">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16353,8 +16594,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30:V36">
-    <cfRule type="colorScale" priority="182">
+  <conditionalFormatting sqref="U5:U11">
+    <cfRule type="colorScale" priority="309">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16365,8 +16606,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30:W36">
-    <cfRule type="colorScale" priority="183">
+  <conditionalFormatting sqref="U16:U22">
+    <cfRule type="colorScale" priority="259">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16377,8 +16618,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X30:X36">
-    <cfRule type="colorScale" priority="184">
+  <conditionalFormatting sqref="U30:U36">
+    <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16389,8 +16630,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y30:Y36">
-    <cfRule type="colorScale" priority="185">
+  <conditionalFormatting sqref="U41:U47">
+    <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16401,8 +16642,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z30:Z36">
-    <cfRule type="colorScale" priority="186">
+  <conditionalFormatting sqref="U55:U61">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16413,8 +16654,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA30:AA36">
-    <cfRule type="colorScale" priority="187">
+  <conditionalFormatting sqref="U66:U72">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16425,8 +16666,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB30:AB36">
-    <cfRule type="colorScale" priority="188">
+  <conditionalFormatting sqref="V5:V11">
+    <cfRule type="colorScale" priority="290">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16437,8 +16678,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC30:AC36">
-    <cfRule type="colorScale" priority="189">
+  <conditionalFormatting sqref="V16:V22">
+    <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16449,7 +16690,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD30:AD36">
+  <conditionalFormatting sqref="V30:V36">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
@@ -16461,8 +16702,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30:AE36">
-    <cfRule type="colorScale" priority="191">
+  <conditionalFormatting sqref="V41:V47">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16473,8 +16714,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF30:AF36">
-    <cfRule type="colorScale" priority="172">
+  <conditionalFormatting sqref="V55:V61">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16485,8 +16726,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG30:AG36">
-    <cfRule type="colorScale" priority="173">
+  <conditionalFormatting sqref="V66:V72">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16497,8 +16738,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH30:AH36">
-    <cfRule type="colorScale" priority="174">
+  <conditionalFormatting sqref="W5:W11">
+    <cfRule type="colorScale" priority="291">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16509,8 +16750,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI30:AI36">
-    <cfRule type="colorScale" priority="175">
+  <conditionalFormatting sqref="W16:W22">
+    <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16521,8 +16762,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ30:AJ36">
-    <cfRule type="colorScale" priority="176">
+  <conditionalFormatting sqref="W30:W36">
+    <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16533,8 +16774,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK30:AK36">
-    <cfRule type="colorScale" priority="177">
+  <conditionalFormatting sqref="W41:W47">
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16545,8 +16786,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL30:AL36">
-    <cfRule type="colorScale" priority="178">
+  <conditionalFormatting sqref="W55:W61">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16557,8 +16798,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM30:AM36">
-    <cfRule type="colorScale" priority="179">
+  <conditionalFormatting sqref="W66:W72">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16569,8 +16810,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN30:AN36">
-    <cfRule type="colorScale" priority="180">
+  <conditionalFormatting sqref="X5:X11">
+    <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16581,8 +16822,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO30:AO36">
-    <cfRule type="colorScale" priority="181">
+  <conditionalFormatting sqref="X16:X22">
+    <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16593,8 +16834,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP30:AP36">
-    <cfRule type="colorScale" priority="162">
+  <conditionalFormatting sqref="X30:X36">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16605,8 +16846,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30:AQ36">
-    <cfRule type="colorScale" priority="163">
+  <conditionalFormatting sqref="X41:X47">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16617,8 +16858,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR30:AR36">
-    <cfRule type="colorScale" priority="164">
+  <conditionalFormatting sqref="X55:X61">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16629,8 +16870,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS30:AS36">
-    <cfRule type="colorScale" priority="165">
+  <conditionalFormatting sqref="X66:X72">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16641,8 +16882,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT30:AT36">
-    <cfRule type="colorScale" priority="166">
+  <conditionalFormatting sqref="Y5:Y11">
+    <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16653,8 +16894,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU30:AU36">
-    <cfRule type="colorScale" priority="167">
+  <conditionalFormatting sqref="Y16:Y22">
+    <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16665,8 +16906,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV30:AV36">
-    <cfRule type="colorScale" priority="168">
+  <conditionalFormatting sqref="Y30:Y36">
+    <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16677,8 +16918,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW30:AW36">
-    <cfRule type="colorScale" priority="169">
+  <conditionalFormatting sqref="Y41:Y47">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16689,8 +16930,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX30:AX36">
-    <cfRule type="colorScale" priority="170">
+  <conditionalFormatting sqref="Y55:Y61">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16701,8 +16942,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY30:AY36">
-    <cfRule type="colorScale" priority="171">
+  <conditionalFormatting sqref="Y66:Y72">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16713,8 +16954,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B47">
-    <cfRule type="colorScale" priority="152">
+  <conditionalFormatting sqref="Z5:Z11">
+    <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16725,8 +16966,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:C47">
-    <cfRule type="colorScale" priority="153">
+  <conditionalFormatting sqref="Z16:Z22">
+    <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16737,8 +16978,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D47">
-    <cfRule type="colorScale" priority="154">
+  <conditionalFormatting sqref="Z30:Z36">
+    <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16749,8 +16990,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E47">
-    <cfRule type="colorScale" priority="155">
+  <conditionalFormatting sqref="Z41:Z47">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16761,8 +17002,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F47">
-    <cfRule type="colorScale" priority="156">
+  <conditionalFormatting sqref="Z55:Z61">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16773,8 +17014,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G47">
-    <cfRule type="colorScale" priority="157">
+  <conditionalFormatting sqref="Z66:Z72">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16785,8 +17026,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H47">
-    <cfRule type="colorScale" priority="158">
+  <conditionalFormatting sqref="AA5:AA11">
+    <cfRule type="colorScale" priority="295">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16797,8 +17038,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I47">
-    <cfRule type="colorScale" priority="159">
+  <conditionalFormatting sqref="AA16:AA22">
+    <cfRule type="colorScale" priority="245">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16809,8 +17050,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:J47">
-    <cfRule type="colorScale" priority="160">
+  <conditionalFormatting sqref="AA30:AA36">
+    <cfRule type="colorScale" priority="195">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16821,8 +17062,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:K47">
-    <cfRule type="colorScale" priority="161">
+  <conditionalFormatting sqref="AA41:AA47">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16833,8 +17074,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41:L47">
-    <cfRule type="colorScale" priority="142">
+  <conditionalFormatting sqref="AA55:AA61">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16845,8 +17086,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M41:M47">
-    <cfRule type="colorScale" priority="143">
+  <conditionalFormatting sqref="AA66:AA72">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16857,8 +17098,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N41:N47">
-    <cfRule type="colorScale" priority="144">
+  <conditionalFormatting sqref="AB5:AB11">
+    <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16869,8 +17110,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O41:O47">
-    <cfRule type="colorScale" priority="145">
+  <conditionalFormatting sqref="AB16:AB22">
+    <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16881,8 +17122,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P41:P47">
-    <cfRule type="colorScale" priority="146">
+  <conditionalFormatting sqref="AB30:AB36">
+    <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16893,8 +17134,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q41:Q47">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="AB41:AB47">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16905,8 +17146,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R41:R47">
-    <cfRule type="colorScale" priority="148">
+  <conditionalFormatting sqref="AB55:AB61">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16917,8 +17158,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S41:S47">
-    <cfRule type="colorScale" priority="149">
+  <conditionalFormatting sqref="AB66:AB72">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16929,8 +17170,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T41:T47">
-    <cfRule type="colorScale" priority="150">
+  <conditionalFormatting sqref="AC5:AC11">
+    <cfRule type="colorScale" priority="297">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16941,8 +17182,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U41:U47">
-    <cfRule type="colorScale" priority="151">
+  <conditionalFormatting sqref="AC16:AC22">
+    <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16953,8 +17194,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V41:V47">
-    <cfRule type="colorScale" priority="132">
+  <conditionalFormatting sqref="AC30:AC36">
+    <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16965,8 +17206,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W41:W47">
-    <cfRule type="colorScale" priority="133">
+  <conditionalFormatting sqref="AC41:AC47">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16977,8 +17218,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X41:X47">
-    <cfRule type="colorScale" priority="134">
+  <conditionalFormatting sqref="AC55:AC61">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16989,8 +17230,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y41:Y47">
-    <cfRule type="colorScale" priority="135">
+  <conditionalFormatting sqref="AC66:AC72">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17001,8 +17242,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z41:Z47">
-    <cfRule type="colorScale" priority="136">
+  <conditionalFormatting sqref="AD5:AD11">
+    <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17013,8 +17254,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA41:AA47">
-    <cfRule type="colorScale" priority="137">
+  <conditionalFormatting sqref="AD16:AD22">
+    <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17025,8 +17266,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB41:AB47">
-    <cfRule type="colorScale" priority="138">
+  <conditionalFormatting sqref="AD30:AD36">
+    <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17037,8 +17278,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC41:AC47">
-    <cfRule type="colorScale" priority="139">
+  <conditionalFormatting sqref="AD41:AD47">
+    <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17049,8 +17290,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD41:AD47">
-    <cfRule type="colorScale" priority="140">
+  <conditionalFormatting sqref="AD55:AD61">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17061,8 +17302,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE41:AE47">
-    <cfRule type="colorScale" priority="141">
+  <conditionalFormatting sqref="AD66:AD72">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17073,8 +17314,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF41:AF47">
-    <cfRule type="colorScale" priority="122">
+  <conditionalFormatting sqref="AE5:AE11">
+    <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17085,8 +17326,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG41:AG47">
-    <cfRule type="colorScale" priority="123">
+  <conditionalFormatting sqref="AE16:AE22">
+    <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17097,8 +17338,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH41:AH47">
-    <cfRule type="colorScale" priority="124">
+  <conditionalFormatting sqref="AE30:AE36">
+    <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17109,8 +17350,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI41:AI47">
-    <cfRule type="colorScale" priority="125">
+  <conditionalFormatting sqref="AE41:AE47">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17121,8 +17362,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ41:AJ47">
-    <cfRule type="colorScale" priority="126">
+  <conditionalFormatting sqref="AE55:AE61">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17133,8 +17374,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK41:AK47">
-    <cfRule type="colorScale" priority="127">
+  <conditionalFormatting sqref="AE66:AE72">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17145,8 +17386,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL41:AL47">
-    <cfRule type="colorScale" priority="128">
+  <conditionalFormatting sqref="AF5:AF11">
+    <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17157,8 +17398,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM41:AM47">
-    <cfRule type="colorScale" priority="129">
+  <conditionalFormatting sqref="AF16:AF22">
+    <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17169,8 +17410,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN41:AN47">
-    <cfRule type="colorScale" priority="130">
+  <conditionalFormatting sqref="AF30:AF36">
+    <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17181,8 +17422,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO41:AO47">
-    <cfRule type="colorScale" priority="131">
+  <conditionalFormatting sqref="AF41:AF47">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17193,8 +17434,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP41:AP47">
-    <cfRule type="colorScale" priority="112">
+  <conditionalFormatting sqref="AF55:AF61">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17205,8 +17446,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ41:AQ47">
-    <cfRule type="colorScale" priority="113">
+  <conditionalFormatting sqref="AF66:AF72">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17217,8 +17458,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR41:AR47">
-    <cfRule type="colorScale" priority="114">
+  <conditionalFormatting sqref="AG5:AG11">
+    <cfRule type="colorScale" priority="281">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17229,8 +17470,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS41:AS47">
-    <cfRule type="colorScale" priority="115">
+  <conditionalFormatting sqref="AG16:AG22">
+    <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17241,8 +17482,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT41:AT47">
-    <cfRule type="colorScale" priority="116">
+  <conditionalFormatting sqref="AG30:AG36">
+    <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17253,8 +17494,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU41:AU47">
-    <cfRule type="colorScale" priority="117">
+  <conditionalFormatting sqref="AG41:AG47">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17265,8 +17506,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV41:AV47">
-    <cfRule type="colorScale" priority="118">
+  <conditionalFormatting sqref="AG55:AG61">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17277,8 +17518,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW41:AW47">
-    <cfRule type="colorScale" priority="119">
+  <conditionalFormatting sqref="AG66:AG72">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17289,8 +17530,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX41:AX47">
-    <cfRule type="colorScale" priority="120">
+  <conditionalFormatting sqref="AH5:AH11">
+    <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17301,8 +17542,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY41:AY47">
-    <cfRule type="colorScale" priority="121">
+  <conditionalFormatting sqref="AH16:AH22">
+    <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17313,8 +17554,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B61">
-    <cfRule type="colorScale" priority="102">
+  <conditionalFormatting sqref="AH30:AH36">
+    <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17325,8 +17566,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:C61">
-    <cfRule type="colorScale" priority="103">
+  <conditionalFormatting sqref="AH41:AH47">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17337,8 +17578,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D61">
-    <cfRule type="colorScale" priority="104">
+  <conditionalFormatting sqref="AH55:AH61">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17349,8 +17590,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E61">
-    <cfRule type="colorScale" priority="105">
+  <conditionalFormatting sqref="AH66:AH72">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17361,8 +17602,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55:F61">
-    <cfRule type="colorScale" priority="106">
+  <conditionalFormatting sqref="AI5:AI11">
+    <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17373,8 +17614,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:G61">
-    <cfRule type="colorScale" priority="107">
+  <conditionalFormatting sqref="AI16:AI22">
+    <cfRule type="colorScale" priority="233">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17385,8 +17626,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H61">
-    <cfRule type="colorScale" priority="108">
+  <conditionalFormatting sqref="AI30:AI36">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17397,8 +17638,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I61">
-    <cfRule type="colorScale" priority="109">
+  <conditionalFormatting sqref="AI41:AI47">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17409,8 +17650,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J61">
-    <cfRule type="colorScale" priority="110">
+  <conditionalFormatting sqref="AI55:AI61">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17421,8 +17662,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:K61">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="AI66:AI72">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17433,8 +17674,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55:L61">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="AJ5:AJ11">
+    <cfRule type="colorScale" priority="284">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17445,8 +17686,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:M61">
-    <cfRule type="colorScale" priority="93">
+  <conditionalFormatting sqref="AJ16:AJ22">
+    <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17457,8 +17698,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55:N61">
-    <cfRule type="colorScale" priority="94">
+  <conditionalFormatting sqref="AJ30:AJ36">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17469,8 +17710,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O55:O61">
-    <cfRule type="colorScale" priority="95">
+  <conditionalFormatting sqref="AJ41:AJ47">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17481,8 +17722,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P55:P61">
-    <cfRule type="colorScale" priority="96">
+  <conditionalFormatting sqref="AJ55:AJ61">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17493,8 +17734,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q55:Q61">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="AJ66:AJ72">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17505,8 +17746,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R55:R61">
-    <cfRule type="colorScale" priority="98">
+  <conditionalFormatting sqref="AK5:AK11">
+    <cfRule type="colorScale" priority="285">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17517,8 +17758,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S55:S61">
-    <cfRule type="colorScale" priority="99">
+  <conditionalFormatting sqref="AK16:AK22">
+    <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17529,8 +17770,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T55:T61">
-    <cfRule type="colorScale" priority="100">
+  <conditionalFormatting sqref="AK30:AK36">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17541,8 +17782,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U55:U61">
-    <cfRule type="colorScale" priority="101">
+  <conditionalFormatting sqref="AK41:AK47">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17553,8 +17794,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V55:V61">
-    <cfRule type="colorScale" priority="82">
+  <conditionalFormatting sqref="AK55:AK61">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17565,8 +17806,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W55:W61">
-    <cfRule type="colorScale" priority="83">
+  <conditionalFormatting sqref="AK66:AK72">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17577,8 +17818,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X55:X61">
-    <cfRule type="colorScale" priority="84">
+  <conditionalFormatting sqref="AL5:AL11">
+    <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17589,8 +17830,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y55:Y61">
-    <cfRule type="colorScale" priority="85">
+  <conditionalFormatting sqref="AL16:AL22">
+    <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17601,8 +17842,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z55:Z61">
-    <cfRule type="colorScale" priority="86">
+  <conditionalFormatting sqref="AL30:AL36">
+    <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17613,8 +17854,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AA61">
-    <cfRule type="colorScale" priority="87">
+  <conditionalFormatting sqref="AL41:AL47">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17625,8 +17866,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB55:AB61">
-    <cfRule type="colorScale" priority="88">
+  <conditionalFormatting sqref="AL55:AL61">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17637,8 +17878,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC55:AC61">
-    <cfRule type="colorScale" priority="89">
+  <conditionalFormatting sqref="AL66:AL72">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17649,8 +17890,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD55:AD61">
-    <cfRule type="colorScale" priority="90">
+  <conditionalFormatting sqref="AM5:AM11">
+    <cfRule type="colorScale" priority="287">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17661,8 +17902,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE55:AE61">
-    <cfRule type="colorScale" priority="91">
+  <conditionalFormatting sqref="AM16:AM22">
+    <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17673,8 +17914,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF55:AF61">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="AM30:AM36">
+    <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17685,8 +17926,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG55:AG61">
-    <cfRule type="colorScale" priority="73">
+  <conditionalFormatting sqref="AM41:AM47">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17697,8 +17938,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH55:AH61">
-    <cfRule type="colorScale" priority="74">
+  <conditionalFormatting sqref="AM55:AM61">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17709,8 +17950,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI55:AI61">
-    <cfRule type="colorScale" priority="75">
+  <conditionalFormatting sqref="AM66:AM72">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17721,8 +17962,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ55:AJ61">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="AN5:AN11">
+    <cfRule type="colorScale" priority="288">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17733,8 +17974,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK55:AK61">
-    <cfRule type="colorScale" priority="77">
+  <conditionalFormatting sqref="AN16:AN22">
+    <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17745,8 +17986,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL55:AL61">
-    <cfRule type="colorScale" priority="78">
+  <conditionalFormatting sqref="AN30:AN36">
+    <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17757,8 +17998,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM55:AM61">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="AN41:AN47">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17770,7 +18011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN55:AN61">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17781,8 +18022,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO55:AO61">
-    <cfRule type="colorScale" priority="81">
+  <conditionalFormatting sqref="AN66:AN72">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17793,8 +18034,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP55:AP61">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="AO5:AO11">
+    <cfRule type="colorScale" priority="289">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17805,8 +18046,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ55:AQ61">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="AO16:AO22">
+    <cfRule type="colorScale" priority="239">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17817,8 +18058,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR55:AR61">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="AO30:AO36">
+    <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17829,8 +18070,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS55:AS61">
-    <cfRule type="colorScale" priority="65">
+  <conditionalFormatting sqref="AO41:AO47">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17841,8 +18082,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT55:AT61">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="AO55:AO61">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17853,8 +18094,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU55:AU61">
-    <cfRule type="colorScale" priority="67">
+  <conditionalFormatting sqref="AO66:AO72">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17865,8 +18106,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV55:AV61">
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="AP5:AP11">
+    <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17877,8 +18118,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW55:AW61">
-    <cfRule type="colorScale" priority="69">
+  <conditionalFormatting sqref="AP16:AP22">
+    <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17889,8 +18130,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX55:AX61">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="AP30:AP36">
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17901,8 +18142,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY55:AY61">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="AP41:AP47">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17913,8 +18154,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B72">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="AP55:AP61">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17925,8 +18166,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C72">
-    <cfRule type="colorScale" priority="53">
+  <conditionalFormatting sqref="AP66:AP72">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17937,8 +18178,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D72">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="AQ5:AQ11">
+    <cfRule type="colorScale" priority="271">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17949,8 +18190,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E72">
-    <cfRule type="colorScale" priority="55">
+  <conditionalFormatting sqref="AQ16:AQ22">
+    <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17961,8 +18202,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66:F72">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="AQ30:AQ36">
+    <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17973,8 +18214,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:G72">
-    <cfRule type="colorScale" priority="57">
+  <conditionalFormatting sqref="AQ41:AQ47">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17985,8 +18226,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66:H72">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="AQ55:AQ61">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17997,8 +18238,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:I72">
-    <cfRule type="colorScale" priority="59">
+  <conditionalFormatting sqref="AQ66:AQ72">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18009,8 +18250,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66:J72">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="AR5:AR11">
+    <cfRule type="colorScale" priority="272">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18021,8 +18262,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:K72">
-    <cfRule type="colorScale" priority="61">
+  <conditionalFormatting sqref="AR16:AR22">
+    <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18033,8 +18274,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L66:L72">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="AR30:AR36">
+    <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18045,8 +18286,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M66:M72">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="AR41:AR47">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18057,8 +18298,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N66:N72">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="AR55:AR61">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18069,8 +18310,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O66:O72">
-    <cfRule type="colorScale" priority="45">
+  <conditionalFormatting sqref="AR66:AR72">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18081,8 +18322,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P66:P72">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="AS5:AS11">
+    <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18093,8 +18334,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q66:Q72">
-    <cfRule type="colorScale" priority="47">
+  <conditionalFormatting sqref="AS16:AS22">
+    <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18105,8 +18346,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R66:R72">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="AS30:AS36">
+    <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18117,8 +18358,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S66:S72">
-    <cfRule type="colorScale" priority="49">
+  <conditionalFormatting sqref="AS41:AS47">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18129,8 +18370,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T66:T72">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="AS55:AS61">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18141,8 +18382,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U66:U72">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="AS66:AS72">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18153,8 +18394,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V66:V72">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="AT5:AT11">
+    <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18165,8 +18406,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W66:W72">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="AT16:AT22">
+    <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18177,8 +18418,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X66:X72">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="AT30:AT36">
+    <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18189,8 +18430,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y66:Y72">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="AT41:AT47">
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18201,8 +18442,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z66:Z72">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="AT55:AT61">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18213,8 +18454,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA66:AA72">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="AT66:AT72">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18225,8 +18466,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB66:AB72">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="AU5:AU11">
+    <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18237,8 +18478,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC66:AC72">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="AU16:AU22">
+    <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18249,8 +18490,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD66:AD72">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="AU30:AU36">
+    <cfRule type="colorScale" priority="175">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18261,8 +18502,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE66:AE72">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="AU41:AU47">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18273,8 +18514,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF66:AF72">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="AU55:AU61">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18285,8 +18526,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG66:AG72">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="AU66:AU72">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18297,8 +18538,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH66:AH72">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="AV5:AV11">
+    <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18309,8 +18550,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI66:AI72">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="AV16:AV22">
+    <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18321,8 +18562,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ66:AJ72">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="AV30:AV36">
+    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18333,8 +18574,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK66:AK72">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="AV41:AV47">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18345,8 +18586,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL66:AL72">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="AV55:AV61">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18357,8 +18598,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM66:AM72">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="AV66:AV72">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18369,8 +18610,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN66:AN72">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="AW5:AW11">
+    <cfRule type="colorScale" priority="277">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18381,8 +18622,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO66:AO72">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="AW16:AW22">
+    <cfRule type="colorScale" priority="227">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18393,8 +18634,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP66:AP72">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="AW30:AW36">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18405,8 +18646,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ66:AQ72">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="AW41:AW47">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18417,8 +18658,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR66:AR72">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="AW55:AW61">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18429,8 +18670,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS66:AS72">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="AW66:AW72">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18441,8 +18682,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT66:AT72">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="AX5:AX11">
+    <cfRule type="colorScale" priority="278">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18453,8 +18694,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU66:AU72">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="AX16:AX22">
+    <cfRule type="colorScale" priority="228">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18465,8 +18706,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV66:AV72">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="AX30:AX36">
+    <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18477,8 +18718,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW66:AW72">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="AX41:AX47">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18489,8 +18730,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX66:AX72">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="AX55:AX61">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18501,8 +18742,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY66:AY72">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="AX66:AX72">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18513,8 +18754,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B84">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="AY5:AY11">
+    <cfRule type="colorScale" priority="279">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18525,8 +18766,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C84">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="AY16:AY22">
+    <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18537,8 +18778,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78:D84">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="AY30:AY36">
+    <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18549,8 +18790,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:F84">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AY41:AY47">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18561,8 +18802,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78:G84">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="AY55:AY61">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18573,8 +18814,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H84">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="AY66:AY72">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18585,8 +18826,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B95">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="B90:B93">
+    <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18597,8 +18838,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89:C95">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C90:C93">
+    <cfRule type="colorScale" priority="329">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18609,8 +18850,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E84">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D90:D93">
+    <cfRule type="colorScale" priority="330">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color rgb="FF00EA6A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E93">
+    <cfRule type="colorScale" priority="331">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18621,8 +18874,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78:I84">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="F90:F93">
+    <cfRule type="colorScale" priority="332">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color rgb="FF00EA6A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90:G93">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color rgb="FF00EA6A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90:H93">
+    <cfRule type="colorScale" priority="334">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color rgb="FF00EA6A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90:I93">
+    <cfRule type="colorScale" priority="335">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18659,16 +18948,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -19019,16 +19308,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -19367,16 +19656,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -19722,21 +20011,21 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -20222,11 +20511,11 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -20583,11 +20872,11 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
@@ -20949,11 +21238,11 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
@@ -21310,11 +21599,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
@@ -21676,11 +21965,11 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
@@ -22037,11 +22326,11 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
@@ -23160,11 +23449,11 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -24641,11 +24930,11 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
@@ -26127,11 +26416,11 @@
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
@@ -27608,11 +27897,11 @@
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
@@ -29094,11 +29383,11 @@
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
@@ -30575,11 +30864,11 @@
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
@@ -32165,11 +32454,11 @@
   <sheetData>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -33646,11 +33935,11 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
@@ -35183,16 +35472,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -35580,16 +35869,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -35977,16 +36266,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -36381,16 +36670,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -36785,16 +37074,16 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
